--- a/Documentation/T24N/CUAC_UtilityCompaniesRatesTerritories.xlsx
+++ b/Documentation/T24N/CUAC_UtilityCompaniesRatesTerritories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\svn-CEC\SF_CBECC-Com\branches\CBECC_CUAC\Documentation\T24N\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\svn-CEC\SF_CBECC-Com\branches\CBECC-Com_MFamRestructure\Documentation\T24N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020D73DF-5AC9-4804-A6F7-6597B2DBD9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE604B34-A75E-47D5-97E7-34B19A48E6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30330" yWindow="2490" windowWidth="26130" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="1995" windowWidth="28140" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CUAC_UtilityRates" sheetId="1" r:id="rId1"/>
@@ -378,10 +378,6 @@
     <t>Per website materials (Schedules D-1, D-2 and D-3) current as of 10/6/20.  Used SMUD for Summer/Winter months - no impact.  CEC upate 8/23/2021</t>
   </si>
   <si>
-    <t>Per website materials (Schedules D-1, D-2 and D-3) current as of 10/6/20.  CEC update 8/23/2021. 
-Note:  This only applies to Winter months.</t>
-  </si>
-  <si>
     <t>SLMU</t>
   </si>
   <si>
@@ -1217,6 +1213,9 @@
   </si>
   <si>
     <t>UnitCost</t>
+  </si>
+  <si>
+    <t>Per website materials (Schedules D-1, D-2 and D-3) current as of 10/6/20.  CEC update 8/23/2021.  Note:  This only applies to Winter months.</t>
   </si>
 </sst>
 </file>
@@ -1781,21 +1780,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1808,16 +1807,16 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1826,10 +1825,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1848,13 +1847,13 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1951,20 +1950,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="28" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1979,10 +1977,10 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1991,10 +1989,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2341,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="N68" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V106" sqref="V106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,112 +2369,112 @@
   <sheetData>
     <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P2" s="53"/>
     </row>
     <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P3" s="53"/>
     </row>
     <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P4" s="53"/>
     </row>
     <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P5" s="53"/>
     </row>
     <row r="6" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P6" s="53"/>
     </row>
     <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P7" s="53"/>
     </row>
     <row r="8" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P8" s="53"/>
     </row>
     <row r="9" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>346</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P9" s="53"/>
     </row>
     <row r="10" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P10" s="53"/>
     </row>
     <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P11" s="53"/>
     </row>
     <row r="12" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P12" s="53"/>
     </row>
     <row r="13" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P13" s="53"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -2538,54 +2536,54 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>348</v>
-      </c>
-      <c r="D15" s="73" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="E15" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="F15" s="73" t="s">
-        <v>393</v>
-      </c>
-      <c r="G15" s="62" t="s">
-        <v>393</v>
-      </c>
-      <c r="H15" s="62" t="s">
-        <v>393</v>
-      </c>
-      <c r="I15" s="62" t="s">
-        <v>393</v>
-      </c>
-      <c r="J15" s="62" t="s">
-        <v>393</v>
-      </c>
-      <c r="K15" s="62" t="s">
-        <v>393</v>
-      </c>
-      <c r="L15" s="62" t="s">
-        <v>393</v>
-      </c>
-      <c r="M15" s="62" t="s">
-        <v>393</v>
-      </c>
-      <c r="N15" s="62" t="s">
-        <v>393</v>
-      </c>
-      <c r="O15" s="62" t="s">
-        <v>393</v>
-      </c>
-      <c r="P15" s="62" t="s">
+      <c r="F15" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="K15" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="L15" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="M15" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="N15" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="O15" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="P15" s="61" t="s">
         <v>17</v>
       </c>
       <c r="Q15" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R15" s="60"/>
       <c r="S15" s="60"/>
@@ -2593,54 +2591,54 @@
       <c r="U15" s="60"/>
       <c r="V15" s="60"/>
     </row>
-    <row r="16" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="73" t="s">
-        <v>392</v>
-      </c>
-      <c r="C16" s="63">
-        <v>0</v>
-      </c>
-      <c r="D16" s="63">
-        <v>0</v>
-      </c>
-      <c r="E16" s="63">
-        <v>0</v>
-      </c>
-      <c r="F16" s="62">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="62">
+        <v>0</v>
+      </c>
+      <c r="D16" s="62">
+        <v>0</v>
+      </c>
+      <c r="E16" s="62">
+        <v>0</v>
+      </c>
+      <c r="F16" s="61">
         <v>2</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="61">
         <v>2</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="61">
         <v>2</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="61">
         <v>2</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="61">
         <v>2</v>
       </c>
-      <c r="K16" s="62">
-        <v>1</v>
-      </c>
-      <c r="L16" s="62">
-        <v>1</v>
-      </c>
-      <c r="M16" s="62">
-        <v>1</v>
-      </c>
-      <c r="N16" s="62">
-        <v>1</v>
-      </c>
-      <c r="O16" s="62">
-        <v>1</v>
-      </c>
-      <c r="P16" s="63">
+      <c r="K16" s="61">
+        <v>1</v>
+      </c>
+      <c r="L16" s="61">
+        <v>1</v>
+      </c>
+      <c r="M16" s="61">
+        <v>1</v>
+      </c>
+      <c r="N16" s="61">
+        <v>1</v>
+      </c>
+      <c r="O16" s="61">
+        <v>1</v>
+      </c>
+      <c r="P16" s="62">
         <v>0</v>
       </c>
       <c r="Q16" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R16" s="60"/>
       <c r="S16" s="60"/>
@@ -2648,54 +2646,54 @@
       <c r="U16" s="60"/>
       <c r="V16" s="60"/>
     </row>
-    <row r="17" spans="2:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="C17" s="63">
-        <v>0</v>
-      </c>
-      <c r="D17" s="63">
-        <v>0</v>
-      </c>
-      <c r="E17" s="63">
-        <v>0</v>
-      </c>
-      <c r="F17" s="62">
-        <v>1</v>
-      </c>
-      <c r="G17" s="62">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="62">
+        <v>0</v>
+      </c>
+      <c r="D17" s="62">
+        <v>0</v>
+      </c>
+      <c r="E17" s="62">
+        <v>0</v>
+      </c>
+      <c r="F17" s="61">
+        <v>1</v>
+      </c>
+      <c r="G17" s="61">
         <v>2</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="61">
         <v>3</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="61">
         <v>4</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="61">
         <v>5</v>
       </c>
-      <c r="K17" s="62">
-        <v>1</v>
-      </c>
-      <c r="L17" s="62">
+      <c r="K17" s="61">
+        <v>1</v>
+      </c>
+      <c r="L17" s="61">
         <v>2</v>
       </c>
-      <c r="M17" s="62">
+      <c r="M17" s="61">
         <v>3</v>
       </c>
-      <c r="N17" s="62">
+      <c r="N17" s="61">
         <v>4</v>
       </c>
-      <c r="O17" s="62">
+      <c r="O17" s="61">
         <v>5</v>
       </c>
-      <c r="P17" s="63">
+      <c r="P17" s="62">
         <v>0</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R17" s="60"/>
       <c r="S17" s="60"/>
@@ -2710,7 +2708,7 @@
       <c r="C18" s="56">
         <v>1</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="73">
         <v>10.119999999999999</v>
       </c>
       <c r="E18" s="5">
@@ -2746,11 +2744,11 @@
       <c r="O18" s="5">
         <v>0.40969</v>
       </c>
-      <c r="P18" s="64" t="s">
+      <c r="P18" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R18" s="2" t="s">
         <v>19</v>
@@ -2775,7 +2773,7 @@
       <c r="C19" s="56">
         <v>1</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="73">
         <v>5</v>
       </c>
       <c r="E19" s="5">
@@ -2811,11 +2809,11 @@
       <c r="O19" s="5">
         <v>0.26660819499999999</v>
       </c>
-      <c r="P19" s="64" t="s">
+      <c r="P19" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>19</v>
@@ -2840,7 +2838,7 @@
       <c r="C20" s="56">
         <v>1</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="73">
         <v>0.94299999999999995</v>
       </c>
       <c r="E20" s="5">
@@ -2876,11 +2874,11 @@
       <c r="O20" s="5">
         <v>0.30159999999999998</v>
       </c>
-      <c r="P20" s="64" t="s">
+      <c r="P20" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>24</v>
@@ -2905,7 +2903,7 @@
       <c r="C21" s="56">
         <v>1</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="73">
         <v>0.73</v>
       </c>
       <c r="E21" s="5">
@@ -2941,11 +2939,11 @@
       <c r="O21" s="5">
         <v>0.28557874999999999</v>
       </c>
-      <c r="P21" s="64" t="s">
+      <c r="P21" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q21" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>24</v>
@@ -2970,7 +2968,7 @@
       <c r="C22" s="56">
         <v>1</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="73">
         <v>10.49</v>
       </c>
       <c r="E22" s="5">
@@ -3006,11 +3004,11 @@
       <c r="O22" s="5">
         <v>0.41614000000000001</v>
       </c>
-      <c r="P22" s="64" t="s">
+      <c r="P22" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>27</v>
@@ -3035,7 +3033,7 @@
       <c r="C23" s="56">
         <v>1</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="73">
         <v>5.23</v>
       </c>
       <c r="E23" s="5">
@@ -3071,11 +3069,11 @@
       <c r="O23" s="5">
         <v>0.26629849999999999</v>
       </c>
-      <c r="P23" s="64" t="s">
+      <c r="P23" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>27</v>
@@ -3100,7 +3098,7 @@
       <c r="C24" s="56">
         <v>1</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="73">
         <v>4</v>
       </c>
       <c r="E24" s="5">
@@ -3136,11 +3134,11 @@
       <c r="O24" s="5">
         <v>1.9781500000000001</v>
       </c>
-      <c r="P24" s="69" t="s">
-        <v>360</v>
+      <c r="P24" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R24" s="2" t="s">
         <v>19</v>
@@ -3165,7 +3163,7 @@
       <c r="C25" s="56">
         <v>1</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="73">
         <v>4</v>
       </c>
       <c r="E25" s="5">
@@ -3201,11 +3199,11 @@
       <c r="O25" s="5">
         <v>1.5559419999999999</v>
       </c>
-      <c r="P25" s="69" t="s">
-        <v>360</v>
+      <c r="P25" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>19</v>
@@ -3230,7 +3228,7 @@
       <c r="C26" s="56">
         <v>1</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="73">
         <v>4.999891667</v>
       </c>
       <c r="E26" s="5">
@@ -3266,11 +3264,11 @@
       <c r="O26" s="5">
         <v>1.7277499999999999</v>
       </c>
-      <c r="P26" s="69" t="s">
-        <v>360</v>
+      <c r="P26" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>32</v>
@@ -3295,7 +3293,7 @@
       <c r="C27" s="56">
         <v>1</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="73">
         <v>5</v>
       </c>
       <c r="E27" s="5">
@@ -3331,11 +3329,11 @@
       <c r="O27" s="5">
         <v>1.3498380000000001</v>
       </c>
-      <c r="P27" s="69" t="s">
-        <v>360</v>
+      <c r="P27" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q27" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>32</v>
@@ -3360,7 +3358,7 @@
       <c r="C28" s="56">
         <v>1</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="73">
         <v>4</v>
       </c>
       <c r="E28" s="5">
@@ -3396,11 +3394,11 @@
       <c r="O28" s="5">
         <v>2.2442000000000002</v>
       </c>
-      <c r="P28" s="69" t="s">
-        <v>360</v>
+      <c r="P28" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q28" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>27</v>
@@ -3425,7 +3423,7 @@
       <c r="C29" s="56">
         <v>1</v>
       </c>
-      <c r="D29" s="74">
+      <c r="D29" s="73">
         <v>3.2</v>
       </c>
       <c r="E29" s="5">
@@ -3461,11 +3459,11 @@
       <c r="O29" s="5">
         <v>1.7454339999999999</v>
       </c>
-      <c r="P29" s="69" t="s">
-        <v>360</v>
+      <c r="P29" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q29" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>27</v>
@@ -3490,7 +3488,7 @@
       <c r="C30" s="56">
         <v>1</v>
       </c>
-      <c r="D30" s="74">
+      <c r="D30" s="73">
         <v>0</v>
       </c>
       <c r="E30" s="5">
@@ -3526,11 +3524,11 @@
       <c r="O30" s="5">
         <v>2.7523182689999999</v>
       </c>
-      <c r="P30" s="69" t="s">
-        <v>361</v>
+      <c r="P30" s="68" t="s">
+        <v>360</v>
       </c>
       <c r="Q30" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>37</v>
@@ -3544,8 +3542,8 @@
       <c r="U30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V30" s="70" t="s">
-        <v>363</v>
+      <c r="V30" s="69" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
@@ -3555,7 +3553,7 @@
       <c r="C31" s="56">
         <v>1</v>
       </c>
-      <c r="D31" s="74">
+      <c r="D31" s="73">
         <v>0</v>
       </c>
       <c r="E31" s="5">
@@ -3591,11 +3589,11 @@
       <c r="O31" s="5">
         <v>2.7523182689999999</v>
       </c>
-      <c r="P31" s="69" t="s">
-        <v>361</v>
+      <c r="P31" s="68" t="s">
+        <v>360</v>
       </c>
       <c r="Q31" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R31" s="2" t="s">
         <v>37</v>
@@ -3609,8 +3607,8 @@
       <c r="U31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V31" s="70" t="s">
-        <v>363</v>
+      <c r="V31" s="69" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
@@ -3620,7 +3618,7 @@
       <c r="C32" s="56">
         <v>1</v>
       </c>
-      <c r="D32" s="74">
+      <c r="D32" s="73">
         <v>0</v>
       </c>
       <c r="E32" s="5">
@@ -3656,11 +3654,11 @@
       <c r="O32" s="5">
         <v>0</v>
       </c>
-      <c r="P32" s="64" t="s">
+      <c r="P32" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q32" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R32" s="2" t="s">
         <v>38</v>
@@ -3685,7 +3683,7 @@
       <c r="C33" s="56">
         <v>1</v>
       </c>
-      <c r="D33" s="74">
+      <c r="D33" s="73">
         <v>0</v>
       </c>
       <c r="E33" s="5">
@@ -3721,11 +3719,11 @@
       <c r="O33" s="5">
         <v>0</v>
       </c>
-      <c r="P33" s="69" t="s">
+      <c r="P33" s="68" t="s">
         <v>22</v>
       </c>
       <c r="Q33" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>38</v>
@@ -3750,7 +3748,7 @@
       <c r="C34" s="56">
         <v>1</v>
       </c>
-      <c r="D34" s="74">
+      <c r="D34" s="73">
         <v>7.53</v>
       </c>
       <c r="E34" s="5">
@@ -3786,11 +3784,11 @@
       <c r="O34" s="5">
         <v>0.15895999999999999</v>
       </c>
-      <c r="P34" s="64" t="s">
+      <c r="P34" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q34" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R34" s="2" t="s">
         <v>41</v>
@@ -3804,8 +3802,8 @@
       <c r="U34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V34" s="70" t="s">
-        <v>364</v>
+      <c r="V34" s="69" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
@@ -3815,7 +3813,7 @@
       <c r="C35" s="56">
         <v>1</v>
       </c>
-      <c r="D35" s="74">
+      <c r="D35" s="73">
         <v>6.02</v>
       </c>
       <c r="E35" s="5">
@@ -3851,11 +3849,11 @@
       <c r="O35" s="5">
         <v>0.12243999999999999</v>
       </c>
-      <c r="P35" s="64" t="s">
+      <c r="P35" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q35" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R35" s="2" t="s">
         <v>41</v>
@@ -3869,8 +3867,8 @@
       <c r="U35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V35" s="70" t="s">
-        <v>365</v>
+      <c r="V35" s="69" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
@@ -3880,7 +3878,7 @@
       <c r="C36" s="56">
         <v>1</v>
       </c>
-      <c r="D36" s="74">
+      <c r="D36" s="73">
         <v>7.53</v>
       </c>
       <c r="E36" s="5">
@@ -3916,11 +3914,11 @@
       <c r="O36" s="5">
         <v>0.15895999999999999</v>
       </c>
-      <c r="P36" s="64" t="s">
+      <c r="P36" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q36" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>42</v>
@@ -3934,8 +3932,8 @@
       <c r="U36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V36" s="70" t="s">
-        <v>364</v>
+      <c r="V36" s="69" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
@@ -3945,7 +3943,7 @@
       <c r="C37" s="56">
         <v>1</v>
       </c>
-      <c r="D37" s="74">
+      <c r="D37" s="73">
         <v>6.02</v>
       </c>
       <c r="E37" s="5">
@@ -3981,11 +3979,11 @@
       <c r="O37" s="5">
         <v>0.12243999999999999</v>
       </c>
-      <c r="P37" s="64" t="s">
+      <c r="P37" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q37" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R37" s="2" t="s">
         <v>42</v>
@@ -3999,8 +3997,8 @@
       <c r="U37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V37" s="70" t="s">
-        <v>366</v>
+      <c r="V37" s="69" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
@@ -4010,7 +4008,7 @@
       <c r="C38" s="56">
         <v>1</v>
       </c>
-      <c r="D38" s="74">
+      <c r="D38" s="73">
         <v>7.9</v>
       </c>
       <c r="E38" s="5">
@@ -4046,11 +4044,11 @@
       <c r="O38" s="5">
         <v>0.23438580000000001</v>
       </c>
-      <c r="P38" s="64" t="s">
+      <c r="P38" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q38" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>43</v>
@@ -4075,7 +4073,7 @@
       <c r="C39" s="56">
         <v>1</v>
       </c>
-      <c r="D39" s="74">
+      <c r="D39" s="73">
         <v>7.9</v>
       </c>
       <c r="E39" s="5">
@@ -4111,11 +4109,11 @@
       <c r="O39" s="5">
         <v>0.211871</v>
       </c>
-      <c r="P39" s="64" t="s">
+      <c r="P39" s="63" t="s">
         <v>45</v>
       </c>
       <c r="Q39" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>43</v>
@@ -4140,7 +4138,7 @@
       <c r="C40" s="56">
         <v>1</v>
       </c>
-      <c r="D40" s="74">
+      <c r="D40" s="73">
         <v>12.25</v>
       </c>
       <c r="E40" s="5">
@@ -4176,11 +4174,11 @@
       <c r="O40" s="5">
         <v>5.9049999999999998E-2</v>
       </c>
-      <c r="P40" s="64" t="s">
+      <c r="P40" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q40" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>46</v>
@@ -4205,7 +4203,7 @@
       <c r="C41" s="56">
         <v>1</v>
       </c>
-      <c r="D41" s="74">
+      <c r="D41" s="73">
         <v>22.25</v>
       </c>
       <c r="E41" s="5">
@@ -4241,11 +4239,11 @@
       <c r="O41" s="5">
         <v>0.11329</v>
       </c>
-      <c r="P41" s="64" t="s">
+      <c r="P41" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q41" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>46</v>
@@ -4270,7 +4268,7 @@
       <c r="C42" s="56">
         <v>1</v>
       </c>
-      <c r="D42" s="74">
+      <c r="D42" s="73">
         <v>9.6</v>
       </c>
       <c r="E42" s="5">
@@ -4306,11 +4304,11 @@
       <c r="O42" s="5">
         <v>0.14829115000000001</v>
       </c>
-      <c r="P42" s="64" t="s">
+      <c r="P42" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q42" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R42" s="2" t="s">
         <v>48</v>
@@ -4324,8 +4322,8 @@
       <c r="U42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V42" s="70" t="s">
-        <v>367</v>
+      <c r="V42" s="69" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
@@ -4335,7 +4333,7 @@
       <c r="C43" s="56">
         <v>1</v>
       </c>
-      <c r="D43" s="74">
+      <c r="D43" s="73">
         <v>7.68</v>
       </c>
       <c r="E43" s="5">
@@ -4371,11 +4369,11 @@
       <c r="O43" s="5">
         <v>0.118699185</v>
       </c>
-      <c r="P43" s="64" t="s">
+      <c r="P43" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q43" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R43" s="2" t="s">
         <v>48</v>
@@ -4389,8 +4387,8 @@
       <c r="U43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V43" s="70" t="s">
-        <v>368</v>
+      <c r="V43" s="69" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
@@ -4400,7 +4398,7 @@
       <c r="C44" s="56">
         <v>1</v>
       </c>
-      <c r="D44" s="74">
+      <c r="D44" s="73">
         <v>5</v>
       </c>
       <c r="E44" s="5">
@@ -4436,11 +4434,11 @@
       <c r="O44" s="5">
         <v>0.226906</v>
       </c>
-      <c r="P44" s="64" t="s">
+      <c r="P44" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q44" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R44" s="2" t="s">
         <v>49</v>
@@ -4465,7 +4463,7 @@
       <c r="C45" s="56">
         <v>1</v>
       </c>
-      <c r="D45" s="74">
+      <c r="D45" s="73">
         <v>5</v>
       </c>
       <c r="E45" s="5">
@@ -4501,11 +4499,11 @@
       <c r="O45" s="5">
         <v>0.20424439999999999</v>
       </c>
-      <c r="P45" s="64" t="s">
+      <c r="P45" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q45" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R45" s="2" t="s">
         <v>49</v>
@@ -4530,7 +4528,7 @@
       <c r="C46" s="56">
         <v>1</v>
       </c>
-      <c r="D46" s="74">
+      <c r="D46" s="73">
         <v>23.78</v>
       </c>
       <c r="E46" s="5">
@@ -4566,11 +4564,11 @@
       <c r="O46" s="5">
         <v>0.19389000000000001</v>
       </c>
-      <c r="P46" s="64" t="s">
+      <c r="P46" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q46" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>52</v>
@@ -4584,8 +4582,8 @@
       <c r="U46" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V46" s="70" t="s">
-        <v>369</v>
+      <c r="V46" s="69" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
@@ -4595,7 +4593,7 @@
       <c r="C47" s="56">
         <v>1</v>
       </c>
-      <c r="D47" s="74">
+      <c r="D47" s="73">
         <v>6.34</v>
       </c>
       <c r="E47" s="5">
@@ -4631,11 +4629,11 @@
       <c r="O47" s="5">
         <v>0.19389000000000001</v>
       </c>
-      <c r="P47" s="64" t="s">
+      <c r="P47" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q47" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R47" s="2" t="s">
         <v>52</v>
@@ -4649,8 +4647,8 @@
       <c r="U47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V47" s="70" t="s">
-        <v>370</v>
+      <c r="V47" s="69" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
@@ -4660,7 +4658,7 @@
       <c r="C48" s="56">
         <v>1</v>
       </c>
-      <c r="D48" s="74">
+      <c r="D48" s="73">
         <v>26</v>
       </c>
       <c r="E48" s="5">
@@ -4696,11 +4694,11 @@
       <c r="O48" s="5">
         <v>0.14960000000000001</v>
       </c>
-      <c r="P48" s="64" t="s">
+      <c r="P48" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q48" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R48" s="2" t="s">
         <v>53</v>
@@ -4714,8 +4712,8 @@
       <c r="U48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V48" s="70" t="s">
-        <v>371</v>
+      <c r="V48" s="69" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
@@ -4725,7 +4723,7 @@
       <c r="C49" s="56">
         <v>1</v>
       </c>
-      <c r="D49" s="74">
+      <c r="D49" s="73">
         <v>26</v>
       </c>
       <c r="E49" s="5">
@@ -4761,11 +4759,11 @@
       <c r="O49" s="5">
         <v>0.1271515</v>
       </c>
-      <c r="P49" s="64" t="s">
+      <c r="P49" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q49" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R49" s="2" t="s">
         <v>53</v>
@@ -4779,8 +4777,8 @@
       <c r="U49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V49" s="70" t="s">
-        <v>371</v>
+      <c r="V49" s="69" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
@@ -4790,7 +4788,7 @@
       <c r="C50" s="56">
         <v>1</v>
       </c>
-      <c r="D50" s="74">
+      <c r="D50" s="73">
         <v>5.0004999999999997</v>
       </c>
       <c r="E50" s="5">
@@ -4826,11 +4824,11 @@
       <c r="O50" s="5">
         <v>1.478090286</v>
       </c>
-      <c r="P50" s="69" t="s">
-        <v>360</v>
+      <c r="P50" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q50" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R50" s="2" t="s">
         <v>54</v>
@@ -4855,7 +4853,7 @@
       <c r="C51" s="56">
         <v>1</v>
       </c>
-      <c r="D51" s="74">
+      <c r="D51" s="73">
         <v>4</v>
       </c>
       <c r="E51" s="5">
@@ -4891,11 +4889,11 @@
       <c r="O51" s="5">
         <v>1.182472229</v>
       </c>
-      <c r="P51" s="69" t="s">
-        <v>360</v>
+      <c r="P51" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q51" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>54</v>
@@ -4920,7 +4918,7 @@
       <c r="C52" s="56">
         <v>1</v>
       </c>
-      <c r="D52" s="74">
+      <c r="D52" s="73">
         <v>17</v>
       </c>
       <c r="E52" s="5">
@@ -4956,11 +4954,11 @@
       <c r="O52" s="5">
         <v>0.14979999999999999</v>
       </c>
-      <c r="P52" s="64" t="s">
+      <c r="P52" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q52" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R52" s="2" t="s">
         <v>57</v>
@@ -4985,7 +4983,7 @@
       <c r="C53" s="56">
         <v>1</v>
       </c>
-      <c r="D53" s="74">
+      <c r="D53" s="73">
         <v>6</v>
       </c>
       <c r="E53" s="5">
@@ -5021,11 +5019,11 @@
       <c r="O53" s="5">
         <v>0.12839999999999999</v>
       </c>
-      <c r="P53" s="64" t="s">
+      <c r="P53" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q53" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R53" s="2" t="s">
         <v>57</v>
@@ -5039,8 +5037,8 @@
       <c r="U53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V53" s="70" t="s">
-        <v>372</v>
+      <c r="V53" s="69" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
@@ -5050,7 +5048,7 @@
       <c r="C54" s="56">
         <v>1</v>
       </c>
-      <c r="D54" s="74">
+      <c r="D54" s="73">
         <v>17</v>
       </c>
       <c r="E54" s="5">
@@ -5086,11 +5084,11 @@
       <c r="O54" s="5">
         <v>0.14979999999999999</v>
       </c>
-      <c r="P54" s="64" t="s">
+      <c r="P54" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q54" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R54" s="2" t="s">
         <v>59</v>
@@ -5115,7 +5113,7 @@
       <c r="C55" s="56">
         <v>1</v>
       </c>
-      <c r="D55" s="74">
+      <c r="D55" s="73">
         <v>6</v>
       </c>
       <c r="E55" s="5">
@@ -5151,11 +5149,11 @@
       <c r="O55" s="5">
         <v>0.12839999999999999</v>
       </c>
-      <c r="P55" s="64" t="s">
+      <c r="P55" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q55" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R55" s="2" t="s">
         <v>59</v>
@@ -5169,8 +5167,8 @@
       <c r="U55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V55" s="70" t="s">
-        <v>373</v>
+      <c r="V55" s="69" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
@@ -5180,7 +5178,7 @@
       <c r="C56" s="56">
         <v>1</v>
       </c>
-      <c r="D56" s="74">
+      <c r="D56" s="73">
         <v>9.99</v>
       </c>
       <c r="E56" s="5">
@@ -5216,11 +5214,11 @@
       <c r="O56" s="5">
         <v>0.19395999999999999</v>
       </c>
-      <c r="P56" s="64" t="s">
+      <c r="P56" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q56" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>60</v>
@@ -5234,8 +5232,8 @@
       <c r="U56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V56" s="70" t="s">
-        <v>374</v>
+      <c r="V56" s="69" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
@@ -5245,7 +5243,7 @@
       <c r="C57" s="56">
         <v>1</v>
       </c>
-      <c r="D57" s="74">
+      <c r="D57" s="73">
         <v>10.89</v>
       </c>
       <c r="E57" s="5">
@@ -5281,11 +5279,11 @@
       <c r="O57" s="5">
         <v>1.8899520169999999</v>
       </c>
-      <c r="P57" s="69" t="s">
-        <v>360</v>
+      <c r="P57" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q57" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>60</v>
@@ -5310,7 +5308,7 @@
       <c r="C58" s="56">
         <v>1</v>
       </c>
-      <c r="D58" s="74">
+      <c r="D58" s="73">
         <v>9.85</v>
       </c>
       <c r="E58" s="5">
@@ -5346,11 +5344,11 @@
       <c r="O58" s="5">
         <v>0.14546999999999999</v>
       </c>
-      <c r="P58" s="64" t="s">
+      <c r="P58" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q58" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R58" s="2" t="s">
         <v>60</v>
@@ -5364,8 +5362,8 @@
       <c r="U58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V58" s="70" t="s">
-        <v>375</v>
+      <c r="V58" s="69" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
@@ -5375,7 +5373,7 @@
       <c r="C59" s="56">
         <v>1</v>
       </c>
-      <c r="D59" s="74">
+      <c r="D59" s="73">
         <v>8.17</v>
       </c>
       <c r="E59" s="5">
@@ -5411,11 +5409,11 @@
       <c r="O59" s="5">
         <v>1.387464013</v>
       </c>
-      <c r="P59" s="69" t="s">
-        <v>360</v>
+      <c r="P59" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q59" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R59" s="2" t="s">
         <v>60</v>
@@ -5440,7 +5438,7 @@
       <c r="C60" s="56">
         <v>1</v>
       </c>
-      <c r="D60" s="74">
+      <c r="D60" s="73">
         <v>18.55</v>
       </c>
       <c r="E60" s="5">
@@ -5476,11 +5474,11 @@
       <c r="O60" s="5">
         <v>0.13228999999999999</v>
       </c>
-      <c r="P60" s="64" t="s">
+      <c r="P60" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q60" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R60" s="2" t="s">
         <v>63</v>
@@ -5494,8 +5492,8 @@
       <c r="U60" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V60" s="70" t="s">
-        <v>376</v>
+      <c r="V60" s="69" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
@@ -5505,7 +5503,7 @@
       <c r="C61" s="56">
         <v>1</v>
       </c>
-      <c r="D61" s="74">
+      <c r="D61" s="73">
         <v>5.75</v>
       </c>
       <c r="E61" s="5">
@@ -5541,11 +5539,11 @@
       <c r="O61" s="5">
         <v>1.729859628</v>
       </c>
-      <c r="P61" s="69" t="s">
-        <v>360</v>
+      <c r="P61" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q61" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R61" s="2" t="s">
         <v>64</v>
@@ -5570,7 +5568,7 @@
       <c r="C62" s="56">
         <v>1</v>
       </c>
-      <c r="D62" s="74">
+      <c r="D62" s="73">
         <v>4</v>
       </c>
       <c r="E62" s="5">
@@ -5606,11 +5604,11 @@
       <c r="O62" s="5">
         <v>1.3135896279999999</v>
       </c>
-      <c r="P62" s="69" t="s">
-        <v>360</v>
+      <c r="P62" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q62" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R62" s="2" t="s">
         <v>64</v>
@@ -5635,7 +5633,7 @@
       <c r="C63" s="56">
         <v>1</v>
       </c>
-      <c r="D63" s="74">
+      <c r="D63" s="73">
         <v>5.75</v>
       </c>
       <c r="E63" s="5">
@@ -5671,11 +5669,11 @@
       <c r="O63" s="5">
         <v>1.4206606470000001</v>
       </c>
-      <c r="P63" s="69" t="s">
-        <v>360</v>
+      <c r="P63" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q63" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R63" s="2" t="s">
         <v>66</v>
@@ -5700,7 +5698,7 @@
       <c r="C64" s="56">
         <v>1</v>
       </c>
-      <c r="D64" s="74">
+      <c r="D64" s="73">
         <v>5</v>
       </c>
       <c r="E64" s="5">
@@ -5736,11 +5734,11 @@
       <c r="O64" s="5">
         <v>1.099610647</v>
       </c>
-      <c r="P64" s="69" t="s">
-        <v>360</v>
+      <c r="P64" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q64" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R64" s="2" t="s">
         <v>66</v>
@@ -5765,7 +5763,7 @@
       <c r="C65" s="56">
         <v>1</v>
       </c>
-      <c r="D65" s="74">
+      <c r="D65" s="73">
         <v>5.75</v>
       </c>
       <c r="E65" s="5">
@@ -5801,11 +5799,11 @@
       <c r="O65" s="5">
         <v>1.4948206470000001</v>
       </c>
-      <c r="P65" s="69" t="s">
-        <v>360</v>
+      <c r="P65" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q65" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R65" s="2" t="s">
         <v>67</v>
@@ -5830,7 +5828,7 @@
       <c r="C66" s="56">
         <v>1</v>
       </c>
-      <c r="D66" s="74">
+      <c r="D66" s="73">
         <v>4</v>
       </c>
       <c r="E66" s="5">
@@ -5866,11 +5864,11 @@
       <c r="O66" s="5">
         <v>1.158930647</v>
       </c>
-      <c r="P66" s="69" t="s">
-        <v>360</v>
+      <c r="P66" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q66" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R66" s="2" t="s">
         <v>67</v>
@@ -5895,7 +5893,7 @@
       <c r="C67" s="56">
         <v>1</v>
       </c>
-      <c r="D67" s="74">
+      <c r="D67" s="73">
         <v>0</v>
       </c>
       <c r="E67" s="5">
@@ -5931,11 +5929,11 @@
       <c r="O67" s="5">
         <v>0.29164000000000001</v>
       </c>
-      <c r="P67" s="64" t="s">
+      <c r="P67" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q67" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R67" s="2" t="s">
         <v>68</v>
@@ -5960,7 +5958,7 @@
       <c r="C68" s="56">
         <v>1</v>
       </c>
-      <c r="D68" s="74">
+      <c r="D68" s="73">
         <v>-9</v>
       </c>
       <c r="E68" s="5">
@@ -5996,11 +5994,11 @@
       <c r="O68" s="5">
         <v>0.29164000000000001</v>
       </c>
-      <c r="P68" s="64" t="s">
+      <c r="P68" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q68" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R68" s="2" t="s">
         <v>68</v>
@@ -6025,7 +6023,7 @@
       <c r="C69" s="56">
         <v>1</v>
       </c>
-      <c r="D69" s="74">
+      <c r="D69" s="73">
         <v>15</v>
       </c>
       <c r="E69" s="5">
@@ -6061,11 +6059,11 @@
       <c r="O69" s="5">
         <v>0.15634000000000001</v>
       </c>
-      <c r="P69" s="64" t="s">
+      <c r="P69" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q69" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R69" s="2" t="s">
         <v>71</v>
@@ -6090,7 +6088,7 @@
       <c r="C70" s="56">
         <v>1</v>
       </c>
-      <c r="D70" s="74">
+      <c r="D70" s="73">
         <v>5</v>
       </c>
       <c r="E70" s="5">
@@ -6126,11 +6124,11 @@
       <c r="O70" s="5">
         <v>0.15634000000000001</v>
       </c>
-      <c r="P70" s="64" t="s">
+      <c r="P70" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q70" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R70" s="2" t="s">
         <v>71</v>
@@ -6144,8 +6142,8 @@
       <c r="U70" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V70" s="70" t="s">
-        <v>377</v>
+      <c r="V70" s="69" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.25">
@@ -6155,7 +6153,7 @@
       <c r="C71" s="56">
         <v>1</v>
       </c>
-      <c r="D71" s="74">
+      <c r="D71" s="73">
         <v>15.21</v>
       </c>
       <c r="E71" s="5">
@@ -6191,11 +6189,11 @@
       <c r="O71" s="5">
         <v>0.23649800000000001</v>
       </c>
-      <c r="P71" s="64" t="s">
+      <c r="P71" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q71" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R71" s="2" t="s">
         <v>73</v>
@@ -6220,7 +6218,7 @@
       <c r="C72" s="56">
         <v>1</v>
       </c>
-      <c r="D72" s="74">
+      <c r="D72" s="73">
         <v>13.38</v>
       </c>
       <c r="E72" s="5">
@@ -6256,11 +6254,11 @@
       <c r="O72" s="5">
         <v>0.16391191999999999</v>
       </c>
-      <c r="P72" s="64" t="s">
+      <c r="P72" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q72" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R72" s="2" t="s">
         <v>73</v>
@@ -6285,7 +6283,7 @@
       <c r="C73" s="56">
         <v>1</v>
       </c>
-      <c r="D73" s="74">
+      <c r="D73" s="73">
         <v>0</v>
       </c>
       <c r="E73" s="5">
@@ -6321,11 +6319,11 @@
       <c r="O73" s="5">
         <v>0.17829</v>
       </c>
-      <c r="P73" s="64" t="s">
+      <c r="P73" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q73" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R73" s="2" t="s">
         <v>76</v>
@@ -6350,7 +6348,7 @@
       <c r="C74" s="56">
         <v>1</v>
       </c>
-      <c r="D74" s="74">
+      <c r="D74" s="73">
         <v>-30</v>
       </c>
       <c r="E74" s="5">
@@ -6386,11 +6384,11 @@
       <c r="O74" s="5">
         <v>0.17829999999999999</v>
       </c>
-      <c r="P74" s="64" t="s">
+      <c r="P74" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q74" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R74" s="2" t="s">
         <v>76</v>
@@ -6404,8 +6402,8 @@
       <c r="U74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V74" s="70" t="s">
-        <v>378</v>
+      <c r="V74" s="69" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.25">
@@ -6415,7 +6413,7 @@
       <c r="C75" s="56">
         <v>1</v>
       </c>
-      <c r="D75" s="74">
+      <c r="D75" s="73">
         <v>20</v>
       </c>
       <c r="E75" s="5">
@@ -6451,11 +6449,11 @@
       <c r="O75" s="5">
         <v>0.2414733</v>
       </c>
-      <c r="P75" s="64" t="s">
+      <c r="P75" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q75" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R75" s="2" t="s">
         <v>78</v>
@@ -6480,7 +6478,7 @@
       <c r="C76" s="56">
         <v>1</v>
       </c>
-      <c r="D76" s="74">
+      <c r="D76" s="73">
         <v>20</v>
       </c>
       <c r="E76" s="5">
@@ -6516,11 +6514,11 @@
       <c r="O76" s="5">
         <v>0.16911799999999999</v>
       </c>
-      <c r="P76" s="64" t="s">
+      <c r="P76" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q76" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R76" s="2" t="s">
         <v>78</v>
@@ -6545,7 +6543,7 @@
       <c r="C77" s="56">
         <v>1</v>
       </c>
-      <c r="D77" s="74">
+      <c r="D77" s="73">
         <v>11.89</v>
       </c>
       <c r="E77" s="5">
@@ -6581,11 +6579,11 @@
       <c r="O77" s="5">
         <v>0.28501815000000003</v>
       </c>
-      <c r="P77" s="64" t="s">
+      <c r="P77" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q77" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R77" s="2" t="s">
         <v>81</v>
@@ -6610,7 +6608,7 @@
       <c r="C78" s="56">
         <v>1</v>
       </c>
-      <c r="D78" s="74">
+      <c r="D78" s="73">
         <v>1.39</v>
       </c>
       <c r="E78" s="5">
@@ -6646,11 +6644,11 @@
       <c r="O78" s="5">
         <v>0.13771895000000001</v>
       </c>
-      <c r="P78" s="64" t="s">
+      <c r="P78" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q78" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R78" s="2" t="s">
         <v>81</v>
@@ -6675,7 +6673,7 @@
       <c r="C79" s="56">
         <v>1</v>
       </c>
-      <c r="D79" s="74">
+      <c r="D79" s="73">
         <v>20</v>
       </c>
       <c r="E79" s="5">
@@ -6711,11 +6709,11 @@
       <c r="O79" s="5">
         <v>0.16078999999999999</v>
       </c>
-      <c r="P79" s="64" t="s">
+      <c r="P79" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q79" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R79" s="2" t="s">
         <v>83</v>
@@ -6740,7 +6738,7 @@
       <c r="C80" s="56">
         <v>1</v>
       </c>
-      <c r="D80" s="74">
+      <c r="D80" s="73">
         <v>8</v>
       </c>
       <c r="E80" s="5">
@@ -6776,11 +6774,11 @@
       <c r="O80" s="5">
         <v>0.15928999999999999</v>
       </c>
-      <c r="P80" s="64" t="s">
+      <c r="P80" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q80" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>83</v>
@@ -6805,7 +6803,7 @@
       <c r="C81" s="56">
         <v>1</v>
       </c>
-      <c r="D81" s="74">
+      <c r="D81" s="73">
         <v>21.3</v>
       </c>
       <c r="E81" s="5">
@@ -6841,11 +6839,11 @@
       <c r="O81" s="5">
         <v>0.17124134999999999</v>
       </c>
-      <c r="P81" s="64" t="s">
+      <c r="P81" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q81" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R81" s="2" t="s">
         <v>86</v>
@@ -6870,7 +6868,7 @@
       <c r="C82" s="56">
         <v>1</v>
       </c>
-      <c r="D82" s="74">
+      <c r="D82" s="73">
         <v>8.52</v>
       </c>
       <c r="E82" s="5">
@@ -6906,11 +6904,11 @@
       <c r="O82" s="5">
         <v>0.17124134999999999</v>
       </c>
-      <c r="P82" s="64" t="s">
+      <c r="P82" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q82" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R82" s="2" t="s">
         <v>86</v>
@@ -6935,7 +6933,7 @@
       <c r="C83" s="56">
         <v>1</v>
       </c>
-      <c r="D83" s="74">
+      <c r="D83" s="73">
         <v>3</v>
       </c>
       <c r="E83" s="5">
@@ -6971,11 +6969,11 @@
       <c r="O83" s="5">
         <v>0.29524</v>
       </c>
-      <c r="P83" s="64" t="s">
+      <c r="P83" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q83" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R83" s="2" t="s">
         <v>88</v>
@@ -7000,7 +6998,7 @@
       <c r="C84" s="56">
         <v>1</v>
       </c>
-      <c r="D84" s="74">
+      <c r="D84" s="73">
         <v>3</v>
       </c>
       <c r="E84" s="5">
@@ -7036,11 +7034,11 @@
       <c r="O84" s="5">
         <v>0.29524</v>
       </c>
-      <c r="P84" s="64" t="s">
+      <c r="P84" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q84" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R84" s="2" t="s">
         <v>88</v>
@@ -7065,7 +7063,7 @@
       <c r="C85" s="56">
         <v>1</v>
       </c>
-      <c r="D85" s="74">
+      <c r="D85" s="73">
         <v>25</v>
       </c>
       <c r="E85" s="5">
@@ -7101,11 +7099,11 @@
       <c r="O85" s="5">
         <v>0.13528999999999999</v>
       </c>
-      <c r="P85" s="64" t="s">
+      <c r="P85" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q85" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R85" s="2" t="s">
         <v>90</v>
@@ -7130,7 +7128,7 @@
       <c r="C86" s="56">
         <v>1</v>
       </c>
-      <c r="D86" s="74">
+      <c r="D86" s="73">
         <v>25</v>
       </c>
       <c r="E86" s="5">
@@ -7166,11 +7164,11 @@
       <c r="O86" s="5">
         <v>0.10829</v>
       </c>
-      <c r="P86" s="64" t="s">
+      <c r="P86" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q86" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R86" s="2" t="s">
         <v>90</v>
@@ -7195,7 +7193,7 @@
       <c r="C87" s="56">
         <v>1</v>
       </c>
-      <c r="D87" s="74">
+      <c r="D87" s="73">
         <v>25</v>
       </c>
       <c r="E87" s="5">
@@ -7231,11 +7229,11 @@
       <c r="O87" s="5">
         <v>0.10829</v>
       </c>
-      <c r="P87" s="64" t="s">
+      <c r="P87" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q87" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R87" s="2" t="s">
         <v>92</v>
@@ -7260,7 +7258,7 @@
       <c r="C88" s="56">
         <v>1</v>
       </c>
-      <c r="D88" s="74">
+      <c r="D88" s="73">
         <v>6.38</v>
       </c>
       <c r="E88" s="5">
@@ -7296,11 +7294,11 @@
       <c r="O88" s="5">
         <v>0.30452030000000002</v>
       </c>
-      <c r="P88" s="64" t="s">
+      <c r="P88" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q88" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R88" s="2" t="s">
         <v>93</v>
@@ -7325,7 +7323,7 @@
       <c r="C89" s="56">
         <v>1</v>
       </c>
-      <c r="D89" s="74">
+      <c r="D89" s="73">
         <v>6.38</v>
       </c>
       <c r="E89" s="5">
@@ -7361,11 +7359,11 @@
       <c r="O89" s="5">
         <v>0.30452030000000002</v>
       </c>
-      <c r="P89" s="64" t="s">
+      <c r="P89" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q89" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R89" s="2" t="s">
         <v>93</v>
@@ -7390,7 +7388,7 @@
       <c r="C90" s="56">
         <v>1</v>
       </c>
-      <c r="D90" s="74">
+      <c r="D90" s="73">
         <v>18</v>
       </c>
       <c r="E90" s="5">
@@ -7426,11 +7424,11 @@
       <c r="O90" s="5">
         <v>0.157611</v>
       </c>
-      <c r="P90" s="64" t="s">
+      <c r="P90" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q90" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R90" s="2" t="s">
         <v>96</v>
@@ -7455,7 +7453,7 @@
       <c r="C91" s="56">
         <v>1</v>
       </c>
-      <c r="D91" s="74">
+      <c r="D91" s="73">
         <v>-30</v>
       </c>
       <c r="E91" s="5">
@@ -7491,11 +7489,11 @@
       <c r="O91" s="5">
         <v>0.10996278</v>
       </c>
-      <c r="P91" s="64" t="s">
+      <c r="P91" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q91" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R91" s="2" t="s">
         <v>96</v>
@@ -7520,7 +7518,7 @@
       <c r="C92" s="56">
         <v>1</v>
       </c>
-      <c r="D92" s="74">
+      <c r="D92" s="73">
         <v>17.3</v>
       </c>
       <c r="E92" s="5">
@@ -7556,11 +7554,11 @@
       <c r="O92" s="5">
         <v>0.27261999999999997</v>
       </c>
-      <c r="P92" s="64" t="s">
+      <c r="P92" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q92" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R92" s="2" t="s">
         <v>99</v>
@@ -7585,7 +7583,7 @@
       <c r="C93" s="56">
         <v>1</v>
       </c>
-      <c r="D93" s="74">
+      <c r="D93" s="73">
         <v>17.3</v>
       </c>
       <c r="E93" s="5">
@@ -7621,11 +7619,11 @@
       <c r="O93" s="5">
         <v>0.20453750000000001</v>
       </c>
-      <c r="P93" s="64" t="s">
+      <c r="P93" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q93" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R93" s="2" t="s">
         <v>99</v>
@@ -7650,7 +7648,7 @@
       <c r="C94" s="56">
         <v>1</v>
       </c>
-      <c r="D94" s="74">
+      <c r="D94" s="73">
         <v>5.8</v>
       </c>
       <c r="E94" s="5">
@@ -7686,11 +7684,11 @@
       <c r="O94" s="5">
         <v>0.17427999999999999</v>
       </c>
-      <c r="P94" s="64" t="s">
+      <c r="P94" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q94" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R94" s="2" t="s">
         <v>102</v>
@@ -7715,7 +7713,7 @@
       <c r="C95" s="56">
         <v>1</v>
       </c>
-      <c r="D95" s="74">
+      <c r="D95" s="73">
         <v>5.32</v>
       </c>
       <c r="E95" s="5">
@@ -7751,11 +7749,11 @@
       <c r="O95" s="5">
         <v>0.16009416700000001</v>
       </c>
-      <c r="P95" s="64" t="s">
+      <c r="P95" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q95" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R95" s="2" t="s">
         <v>102</v>
@@ -7780,7 +7778,7 @@
       <c r="C96" s="56">
         <v>1</v>
       </c>
-      <c r="D96" s="74">
+      <c r="D96" s="73">
         <v>0</v>
       </c>
       <c r="E96" s="5">
@@ -7816,11 +7814,11 @@
       <c r="O96" s="5">
         <v>0.35610175700000002</v>
       </c>
-      <c r="P96" s="64" t="s">
+      <c r="P96" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q96" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R96" s="2" t="s">
         <v>105</v>
@@ -7845,7 +7843,7 @@
       <c r="C97" s="56">
         <v>1</v>
       </c>
-      <c r="D97" s="74">
+      <c r="D97" s="73">
         <v>0</v>
       </c>
       <c r="E97" s="5">
@@ -7881,11 +7879,11 @@
       <c r="O97" s="5">
         <v>0.255121757</v>
       </c>
-      <c r="P97" s="64" t="s">
+      <c r="P97" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q97" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R97" s="2" t="s">
         <v>105</v>
@@ -7910,7 +7908,7 @@
       <c r="C98" s="56">
         <v>1</v>
       </c>
-      <c r="D98" s="74">
+      <c r="D98" s="73">
         <v>17.7</v>
       </c>
       <c r="E98" s="5">
@@ -7946,11 +7944,11 @@
       <c r="O98" s="5">
         <v>0.29445100000000002</v>
       </c>
-      <c r="P98" s="64" t="s">
+      <c r="P98" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q98" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R98" s="2" t="s">
         <v>108</v>
@@ -7975,7 +7973,7 @@
       <c r="C99" s="56">
         <v>1</v>
       </c>
-      <c r="D99" s="74">
+      <c r="D99" s="73">
         <v>32.39</v>
       </c>
       <c r="E99" s="5">
@@ -8011,11 +8009,11 @@
       <c r="O99" s="5">
         <v>0.13508475</v>
       </c>
-      <c r="P99" s="64" t="s">
+      <c r="P99" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q99" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R99" s="2" t="s">
         <v>110</v>
@@ -8040,7 +8038,7 @@
       <c r="C100" s="56">
         <v>1</v>
       </c>
-      <c r="D100" s="74">
+      <c r="D100" s="73">
         <v>34.99</v>
       </c>
       <c r="E100" s="5">
@@ -8076,11 +8074,11 @@
       <c r="O100" s="5">
         <v>0.13463269999999999</v>
       </c>
-      <c r="P100" s="64" t="s">
+      <c r="P100" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q100" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R100" s="2" t="s">
         <v>112</v>
@@ -8098,14 +8096,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B101" s="10">
         <v>89</v>
       </c>
       <c r="C101" s="56">
         <v>1</v>
       </c>
-      <c r="D101" s="74">
+      <c r="D101" s="73">
         <v>34.99</v>
       </c>
       <c r="E101" s="5">
@@ -8141,11 +8139,11 @@
       <c r="O101" s="5">
         <v>0.13463269999999999</v>
       </c>
-      <c r="P101" s="64" t="s">
+      <c r="P101" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q101" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R101" s="2" t="s">
         <v>112</v>
@@ -8159,8 +8157,8 @@
       <c r="U101" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>114</v>
+      <c r="V101" s="69" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="102" spans="2:22" x14ac:dyDescent="0.25">
@@ -8170,7 +8168,7 @@
       <c r="C102" s="56">
         <v>1</v>
       </c>
-      <c r="D102" s="74">
+      <c r="D102" s="73">
         <v>-16</v>
       </c>
       <c r="E102" s="5">
@@ -8206,14 +8204,14 @@
       <c r="O102" s="5">
         <v>0.25360638000000002</v>
       </c>
-      <c r="P102" s="64" t="s">
+      <c r="P102" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q102" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R102" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
@@ -8224,8 +8222,8 @@
       <c r="U102" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V102" s="70" t="s">
-        <v>379</v>
+      <c r="V102" s="69" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="2:22" x14ac:dyDescent="0.25">
@@ -8235,7 +8233,7 @@
       <c r="C103" s="56">
         <v>1</v>
       </c>
-      <c r="D103" s="74">
+      <c r="D103" s="73">
         <v>15</v>
       </c>
       <c r="E103" s="5">
@@ -8271,14 +8269,14 @@
       <c r="O103" s="5">
         <v>8.5290000000000005E-2</v>
       </c>
-      <c r="P103" s="64" t="s">
+      <c r="P103" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q103" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R103" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S103" s="3" t="s">
         <v>20</v>
@@ -8290,7 +8288,7 @@
         <v>21</v>
       </c>
       <c r="V103" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="2:22" x14ac:dyDescent="0.25">
@@ -8300,7 +8298,7 @@
       <c r="C104" s="56">
         <v>1</v>
       </c>
-      <c r="D104" s="74">
+      <c r="D104" s="73">
         <v>24.013000000000002</v>
       </c>
       <c r="E104" s="5">
@@ -8336,14 +8334,14 @@
       <c r="O104" s="5">
         <v>7.0319999999999994E-2</v>
       </c>
-      <c r="P104" s="64" t="s">
+      <c r="P104" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q104" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S104" s="3" t="s">
         <v>20</v>
@@ -8355,7 +8353,7 @@
         <v>21</v>
       </c>
       <c r="V104" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="2:22" x14ac:dyDescent="0.25">
@@ -8365,7 +8363,7 @@
       <c r="C105" s="56">
         <v>1</v>
       </c>
-      <c r="D105" s="74">
+      <c r="D105" s="73">
         <v>24.013000000000002</v>
       </c>
       <c r="E105" s="5">
@@ -8401,14 +8399,14 @@
       <c r="O105" s="5">
         <v>9.3739000000000003E-2</v>
       </c>
-      <c r="P105" s="64" t="s">
+      <c r="P105" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q105" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S105" s="3" t="s">
         <v>20</v>
@@ -8420,7 +8418,7 @@
         <v>21</v>
       </c>
       <c r="V105" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="2:22" ht="30" x14ac:dyDescent="0.25">
@@ -8430,7 +8428,7 @@
       <c r="C106" s="56">
         <v>1</v>
       </c>
-      <c r="D106" s="74">
+      <c r="D106" s="73">
         <v>24</v>
       </c>
       <c r="E106" s="5">
@@ -8466,14 +8464,14 @@
       <c r="O106" s="5">
         <v>0.1883</v>
       </c>
-      <c r="P106" s="64" t="s">
+      <c r="P106" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q106" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R106" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S106" s="3" t="s">
         <v>20</v>
@@ -8485,7 +8483,7 @@
         <v>21</v>
       </c>
       <c r="V106" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="2:22" x14ac:dyDescent="0.25">
@@ -8495,7 +8493,7 @@
       <c r="C107" s="56">
         <v>1</v>
       </c>
-      <c r="D107" s="74">
+      <c r="D107" s="73">
         <v>9.67</v>
       </c>
       <c r="E107" s="5">
@@ -8531,14 +8529,14 @@
       <c r="O107" s="5">
         <v>0.17126</v>
       </c>
-      <c r="P107" s="64" t="s">
+      <c r="P107" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q107" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S107" s="3" t="s">
         <v>20</v>
@@ -8550,7 +8548,7 @@
         <v>21</v>
       </c>
       <c r="V107" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.25">
@@ -8560,7 +8558,7 @@
       <c r="C108" s="56">
         <v>1</v>
       </c>
-      <c r="D108" s="74">
+      <c r="D108" s="73">
         <v>7.74</v>
       </c>
       <c r="E108" s="5">
@@ -8596,14 +8594,14 @@
       <c r="O108" s="5">
         <v>0.13450000000000001</v>
       </c>
-      <c r="P108" s="64" t="s">
+      <c r="P108" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q108" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R108" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S108" s="3" t="s">
         <v>3</v>
@@ -8615,7 +8613,7 @@
         <v>21</v>
       </c>
       <c r="V108" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.25">
@@ -8625,7 +8623,7 @@
       <c r="C109" s="56">
         <v>1</v>
       </c>
-      <c r="D109" s="74">
+      <c r="D109" s="73">
         <v>6.3875000000000002</v>
       </c>
       <c r="E109" s="5">
@@ -8661,14 +8659,14 @@
       <c r="O109" s="5">
         <v>0.30547999999999997</v>
       </c>
-      <c r="P109" s="64" t="s">
+      <c r="P109" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q109" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R109" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S109" s="3" t="s">
         <v>20</v>
@@ -8680,7 +8678,7 @@
         <v>21</v>
       </c>
       <c r="V109" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.25">
@@ -8690,7 +8688,7 @@
       <c r="C110" s="56">
         <v>1</v>
       </c>
-      <c r="D110" s="74">
+      <c r="D110" s="73">
         <v>5.1100000000000003</v>
       </c>
       <c r="E110" s="5">
@@ -8726,14 +8724,14 @@
       <c r="O110" s="5">
         <v>0.24401</v>
       </c>
-      <c r="P110" s="64" t="s">
+      <c r="P110" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q110" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S110" s="3" t="s">
         <v>3</v>
@@ -8745,7 +8743,7 @@
         <v>21</v>
       </c>
       <c r="V110" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="2:22" x14ac:dyDescent="0.25">
@@ -8755,7 +8753,7 @@
       <c r="C111" s="56">
         <v>1</v>
       </c>
-      <c r="D111" s="74">
+      <c r="D111" s="73">
         <v>7.84</v>
       </c>
       <c r="E111" s="5">
@@ -8791,14 +8789,14 @@
       <c r="O111" s="5">
         <v>0.34938935999999998</v>
       </c>
-      <c r="P111" s="64" t="s">
+      <c r="P111" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q111" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R111" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S111" s="3" t="s">
         <v>3</v>
@@ -8809,8 +8807,8 @@
       <c r="U111" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V111" s="70" t="s">
-        <v>380</v>
+      <c r="V111" s="69" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.25">
@@ -8820,7 +8818,7 @@
       <c r="C112" s="56">
         <v>1</v>
       </c>
-      <c r="D112" s="74">
+      <c r="D112" s="73">
         <v>9.8000000000000007</v>
       </c>
       <c r="E112" s="5">
@@ -8856,14 +8854,14 @@
       <c r="O112" s="5">
         <v>0.4366642</v>
       </c>
-      <c r="P112" s="64" t="s">
+      <c r="P112" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q112" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R112" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S112" s="3" t="s">
         <v>20</v>
@@ -8874,8 +8872,8 @@
       <c r="U112" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V112" s="70" t="s">
-        <v>381</v>
+      <c r="V112" s="69" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="113" spans="2:22" x14ac:dyDescent="0.25">
@@ -8885,7 +8883,7 @@
       <c r="C113" s="56">
         <v>1</v>
       </c>
-      <c r="D113" s="74">
+      <c r="D113" s="73">
         <v>4.5625</v>
       </c>
       <c r="E113" s="5">
@@ -8921,14 +8919,14 @@
       <c r="O113" s="5">
         <v>1.63</v>
       </c>
-      <c r="P113" s="69" t="s">
-        <v>360</v>
+      <c r="P113" s="68" t="s">
+        <v>359</v>
       </c>
       <c r="Q113" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R113" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S113" s="3" t="s">
         <v>20</v>
@@ -8939,8 +8937,8 @@
       <c r="U113" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="V113" s="70" t="s">
-        <v>382</v>
+      <c r="V113" s="69" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="114" spans="2:22" x14ac:dyDescent="0.25">
@@ -8950,7 +8948,7 @@
       <c r="C114" s="56">
         <v>1</v>
       </c>
-      <c r="D114" s="74">
+      <c r="D114" s="73">
         <v>0.94291666699999999</v>
       </c>
       <c r="E114" s="5">
@@ -8986,14 +8984,14 @@
       <c r="O114" s="5">
         <v>0.246557</v>
       </c>
-      <c r="P114" s="64" t="s">
+      <c r="P114" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q114" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R114" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S114" s="3" t="s">
         <v>3</v>
@@ -9004,8 +9002,8 @@
       <c r="U114" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V114" s="70" t="s">
-        <v>383</v>
+      <c r="V114" s="69" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="115" spans="2:22" x14ac:dyDescent="0.25">
@@ -9015,7 +9013,7 @@
       <c r="C115" s="56">
         <v>1</v>
       </c>
-      <c r="D115" s="74">
+      <c r="D115" s="73">
         <v>0.94291666699999999</v>
       </c>
       <c r="E115" s="5">
@@ -9051,14 +9049,14 @@
       <c r="O115" s="5">
         <v>0.34643000000000002</v>
       </c>
-      <c r="P115" s="64" t="s">
+      <c r="P115" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q115" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R115" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S115" s="3" t="s">
         <v>20</v>
@@ -9069,8 +9067,8 @@
       <c r="U115" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V115" s="70" t="s">
-        <v>384</v>
+      <c r="V115" s="69" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="116" spans="2:22" x14ac:dyDescent="0.25">
@@ -9080,7 +9078,7 @@
       <c r="C116" s="56">
         <v>1</v>
       </c>
-      <c r="D116" s="74">
+      <c r="D116" s="73">
         <v>19.5</v>
       </c>
       <c r="E116" s="5">
@@ -9116,14 +9114,14 @@
       <c r="O116" s="5">
         <v>0.25360638000000002</v>
       </c>
-      <c r="P116" s="64" t="s">
+      <c r="P116" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q116" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R116" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S116" s="3" t="s">
         <v>20</v>
@@ -9135,7 +9133,7 @@
         <v>21</v>
       </c>
       <c r="V116" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="2:22" x14ac:dyDescent="0.25">
@@ -9145,7 +9143,7 @@
       <c r="C117" s="56">
         <v>1</v>
       </c>
-      <c r="D117" s="74">
+      <c r="D117" s="73">
         <v>3.46</v>
       </c>
       <c r="E117" s="5">
@@ -9181,14 +9179,14 @@
       <c r="O117" s="5">
         <v>0.21195</v>
       </c>
-      <c r="P117" s="64" t="s">
+      <c r="P117" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q117" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R117" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S117" s="3" t="s">
         <v>3</v>
@@ -9199,8 +9197,8 @@
       <c r="U117" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V117" s="70" t="s">
-        <v>385</v>
+      <c r="V117" s="69" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="2:22" x14ac:dyDescent="0.25">
@@ -9210,7 +9208,7 @@
       <c r="C118" s="56">
         <v>1</v>
       </c>
-      <c r="D118" s="74">
+      <c r="D118" s="73">
         <v>13.46</v>
       </c>
       <c r="E118" s="5">
@@ -9246,14 +9244,14 @@
       <c r="O118" s="5">
         <v>0.21879999999999999</v>
       </c>
-      <c r="P118" s="64" t="s">
+      <c r="P118" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q118" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R118" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S118" s="3" t="s">
         <v>20</v>
@@ -9265,7 +9263,7 @@
         <v>21</v>
       </c>
       <c r="V118" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="2:22" x14ac:dyDescent="0.25">
@@ -9275,7 +9273,7 @@
       <c r="C119" s="56">
         <v>1</v>
       </c>
-      <c r="D119" s="74">
+      <c r="D119" s="73">
         <v>6.25</v>
       </c>
       <c r="E119" s="5">
@@ -9311,14 +9309,14 @@
       <c r="O119" s="5">
         <v>0.21268524999999999</v>
       </c>
-      <c r="P119" s="64" t="s">
+      <c r="P119" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q119" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R119" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S119" s="3" t="s">
         <v>20</v>
@@ -9329,8 +9327,8 @@
       <c r="U119" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V119" s="70" t="s">
-        <v>386</v>
+      <c r="V119" s="69" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="2:22" x14ac:dyDescent="0.25">
@@ -9340,7 +9338,7 @@
       <c r="C120" s="56">
         <v>1</v>
       </c>
-      <c r="D120" s="74">
+      <c r="D120" s="73">
         <v>3.21</v>
       </c>
       <c r="E120" s="5">
@@ -9376,14 +9374,14 @@
       <c r="O120" s="5">
         <v>0.28988999999999998</v>
       </c>
-      <c r="P120" s="64" t="s">
+      <c r="P120" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q120" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R120" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S120" s="3" t="s">
         <v>3</v>
@@ -9395,7 +9393,7 @@
         <v>21</v>
       </c>
       <c r="V120" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="2:22" x14ac:dyDescent="0.25">
@@ -9405,7 +9403,7 @@
       <c r="C121" s="56">
         <v>1</v>
       </c>
-      <c r="D121" s="74">
+      <c r="D121" s="73">
         <v>4.58</v>
       </c>
       <c r="E121" s="5">
@@ -9441,14 +9439,14 @@
       <c r="O121" s="5">
         <v>0.41400999999999999</v>
       </c>
-      <c r="P121" s="64" t="s">
+      <c r="P121" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q121" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R121" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S121" s="3" t="s">
         <v>20</v>
@@ -9460,7 +9458,7 @@
         <v>21</v>
       </c>
       <c r="V121" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="2:22" x14ac:dyDescent="0.25">
@@ -9470,7 +9468,7 @@
       <c r="C122" s="56">
         <v>1</v>
       </c>
-      <c r="D122" s="74">
+      <c r="D122" s="73">
         <v>0.88208333299999997</v>
       </c>
       <c r="E122" s="5">
@@ -9506,14 +9504,14 @@
       <c r="O122" s="5">
         <v>0.33287604500000001</v>
       </c>
-      <c r="P122" s="64" t="s">
+      <c r="P122" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q122" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R122" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S122" s="3" t="s">
         <v>20</v>
@@ -9524,8 +9522,8 @@
       <c r="U122" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V122" s="70" t="s">
-        <v>387</v>
+      <c r="V122" s="69" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="123" spans="2:22" x14ac:dyDescent="0.25">
@@ -9535,7 +9533,7 @@
       <c r="C123" s="56">
         <v>1</v>
       </c>
-      <c r="D123" s="74">
+      <c r="D123" s="73">
         <v>3.03</v>
       </c>
       <c r="E123" s="5">
@@ -9571,14 +9569,14 @@
       <c r="O123" s="5">
         <v>0.22029000000000001</v>
       </c>
-      <c r="P123" s="64" t="s">
+      <c r="P123" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q123" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R123" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S123" s="3" t="s">
         <v>20</v>
@@ -9589,8 +9587,8 @@
       <c r="U123" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V123" s="70" t="s">
-        <v>388</v>
+      <c r="V123" s="69" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="124" spans="2:22" x14ac:dyDescent="0.25">
@@ -9600,7 +9598,7 @@
       <c r="C124" s="56">
         <v>1</v>
       </c>
-      <c r="D124" s="74">
+      <c r="D124" s="73">
         <v>7</v>
       </c>
       <c r="E124" s="5">
@@ -9636,14 +9634,14 @@
       <c r="O124" s="5">
         <v>0.2225</v>
       </c>
-      <c r="P124" s="64" t="s">
+      <c r="P124" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q124" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R124" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S124" s="3" t="s">
         <v>3</v>
@@ -9655,7 +9653,7 @@
         <v>21</v>
       </c>
       <c r="V124" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="2:22" x14ac:dyDescent="0.25">
@@ -9665,7 +9663,7 @@
       <c r="C125" s="56">
         <v>1</v>
       </c>
-      <c r="D125" s="74">
+      <c r="D125" s="73">
         <v>7</v>
       </c>
       <c r="E125" s="5">
@@ -9701,14 +9699,14 @@
       <c r="O125" s="5">
         <v>0.24709999999999999</v>
       </c>
-      <c r="P125" s="64" t="s">
+      <c r="P125" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q125" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R125" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S125" s="3" t="s">
         <v>20</v>
@@ -9720,7 +9718,7 @@
         <v>21</v>
       </c>
       <c r="V125" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="2:22" x14ac:dyDescent="0.25">
@@ -9730,7 +9728,7 @@
       <c r="C126" s="56">
         <v>1</v>
       </c>
-      <c r="D126" s="74">
+      <c r="D126" s="73">
         <v>26.76</v>
       </c>
       <c r="E126" s="5">
@@ -9766,14 +9764,14 @@
       <c r="O126" s="5">
         <v>1.15669</v>
       </c>
-      <c r="P126" s="64" t="s">
+      <c r="P126" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q126" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R126" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S126" s="3" t="s">
         <v>20</v>
@@ -9784,8 +9782,8 @@
       <c r="U126" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V126" s="70" t="s">
-        <v>389</v>
+      <c r="V126" s="69" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="127" spans="2:22" x14ac:dyDescent="0.25">
@@ -9795,7 +9793,7 @@
       <c r="C127" s="56">
         <v>1</v>
       </c>
-      <c r="D127" s="74">
+      <c r="D127" s="73">
         <v>3.64</v>
       </c>
       <c r="E127" s="5">
@@ -9831,14 +9829,14 @@
       <c r="O127" s="5">
         <v>0.20269657599999999</v>
       </c>
-      <c r="P127" s="64" t="s">
+      <c r="P127" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q127" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R127" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S127" s="3" t="s">
         <v>3</v>
@@ -9850,7 +9848,7 @@
         <v>21</v>
       </c>
       <c r="V127" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="2:22" x14ac:dyDescent="0.25">
@@ -9860,7 +9858,7 @@
       <c r="C128" s="56">
         <v>1</v>
       </c>
-      <c r="D128" s="74">
+      <c r="D128" s="73">
         <v>3.43</v>
       </c>
       <c r="E128" s="5">
@@ -9896,14 +9894,14 @@
       <c r="O128" s="5">
         <v>0.23558543500000001</v>
       </c>
-      <c r="P128" s="64" t="s">
+      <c r="P128" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q128" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R128" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S128" s="3" t="s">
         <v>20</v>
@@ -9915,7 +9913,7 @@
         <v>21</v>
       </c>
       <c r="V128" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.25">
@@ -9925,7 +9923,7 @@
       <c r="C129" s="56">
         <v>1</v>
       </c>
-      <c r="D129" s="74">
+      <c r="D129" s="73">
         <v>12</v>
       </c>
       <c r="E129" s="5">
@@ -9961,14 +9959,14 @@
       <c r="O129" s="5">
         <v>0.23438580000000001</v>
       </c>
-      <c r="P129" s="64" t="s">
+      <c r="P129" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q129" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R129" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S129" s="3" t="s">
         <v>3</v>
@@ -9980,7 +9978,7 @@
         <v>21</v>
       </c>
       <c r="V129" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.25">
@@ -9990,7 +9988,7 @@
       <c r="C130" s="56">
         <v>1</v>
       </c>
-      <c r="D130" s="74">
+      <c r="D130" s="73">
         <v>16</v>
       </c>
       <c r="E130" s="5">
@@ -10026,14 +10024,14 @@
       <c r="O130" s="5">
         <v>0.31242599999999998</v>
       </c>
-      <c r="P130" s="64" t="s">
+      <c r="P130" s="63" t="s">
         <v>22</v>
       </c>
       <c r="Q130" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R130" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S130" s="3" t="s">
         <v>20</v>
@@ -10045,65 +10043,65 @@
         <v>21</v>
       </c>
       <c r="V130" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B131" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C131" s="32">
+        <v>0</v>
+      </c>
+      <c r="D131" s="43">
+        <v>0</v>
+      </c>
+      <c r="E131" s="43">
+        <v>0</v>
+      </c>
+      <c r="F131" s="54">
+        <v>0</v>
+      </c>
+      <c r="G131" s="54">
+        <v>0</v>
+      </c>
+      <c r="H131" s="54">
+        <v>0</v>
+      </c>
+      <c r="I131" s="54">
+        <v>0</v>
+      </c>
+      <c r="J131" s="54">
+        <v>0</v>
+      </c>
+      <c r="K131" s="54">
+        <v>0</v>
+      </c>
+      <c r="L131" s="54">
+        <v>0</v>
+      </c>
+      <c r="M131" s="54">
+        <v>0</v>
+      </c>
+      <c r="N131" s="54">
+        <v>0</v>
+      </c>
+      <c r="O131" s="54">
+        <v>0</v>
+      </c>
+      <c r="P131" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q131" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="R131" s="35" t="s">
         <v>349</v>
-      </c>
-      <c r="C131" s="32">
-        <v>0</v>
-      </c>
-      <c r="D131" s="43">
-        <v>0</v>
-      </c>
-      <c r="E131" s="43">
-        <v>0</v>
-      </c>
-      <c r="F131" s="54">
-        <v>0</v>
-      </c>
-      <c r="G131" s="54">
-        <v>0</v>
-      </c>
-      <c r="H131" s="54">
-        <v>0</v>
-      </c>
-      <c r="I131" s="54">
-        <v>0</v>
-      </c>
-      <c r="J131" s="54">
-        <v>0</v>
-      </c>
-      <c r="K131" s="54">
-        <v>0</v>
-      </c>
-      <c r="L131" s="54">
-        <v>0</v>
-      </c>
-      <c r="M131" s="54">
-        <v>0</v>
-      </c>
-      <c r="N131" s="54">
-        <v>0</v>
-      </c>
-      <c r="O131" s="54">
-        <v>0</v>
-      </c>
-      <c r="P131" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q131" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="R131" s="35" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -10143,108 +10141,108 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3" s="7"/>
       <c r="P3" s="53"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="13"/>
@@ -10256,48 +10254,48 @@
         <v>1</v>
       </c>
       <c r="J14" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="O14" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="P14" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D15" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="F15" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="G15" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="G15" s="58" t="s">
-        <v>154</v>
-      </c>
       <c r="H15" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -10332,19 +10330,19 @@
         <v>2.16</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M16" s="8">
         <v>14.2</v>
@@ -10383,19 +10381,19 @@
         <v>2.16</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M17" s="8">
         <v>10.3</v>
@@ -10434,19 +10432,19 @@
         <v>1.97</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M18" s="8">
         <v>18.600000000000001</v>
@@ -10485,19 +10483,19 @@
         <v>2.06</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M19" s="8">
         <v>15.8</v>
@@ -10536,19 +10534,19 @@
         <v>1.81</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M20" s="8">
         <v>6.8</v>
@@ -10587,19 +10585,19 @@
         <v>1.84</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M21" s="8">
         <v>7.5</v>
@@ -10638,19 +10636,19 @@
         <v>1.84</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M22" s="8">
         <v>20.2</v>
@@ -10689,19 +10687,19 @@
         <v>2.16</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M23" s="8">
         <v>10.3</v>
@@ -10740,19 +10738,19 @@
         <v>2.65</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M24" s="8">
         <v>11</v>
@@ -10791,19 +10789,19 @@
         <v>0</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M25" s="8">
         <v>6.2</v>
@@ -10842,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>20</v>
@@ -10893,13 +10891,13 @@
         <v>0</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>20</v>
@@ -10944,13 +10942,13 @@
         <v>0</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>20</v>
@@ -10995,13 +10993,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K29" s="9" t="s">
         <v>20</v>
@@ -11046,13 +11044,13 @@
         <v>0</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>20</v>
@@ -11097,13 +11095,13 @@
         <v>0</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K31" s="9" t="s">
         <v>20</v>
@@ -11148,19 +11146,19 @@
         <v>1.546</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M32" s="8">
         <v>9</v>
@@ -11199,19 +11197,19 @@
         <v>1.546</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M33" s="8">
         <v>10.4</v>
@@ -11250,19 +11248,19 @@
         <v>1.546</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M34" s="8">
         <v>13.6</v>
@@ -11301,19 +11299,19 @@
         <v>1.546</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M35" s="8">
         <v>15.9</v>
@@ -11352,19 +11350,19 @@
         <v>1.1759999999999999</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M36" s="8">
         <v>0</v>
@@ -11403,19 +11401,19 @@
         <v>1.4430000000000001</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K37" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M37" s="8">
         <v>0</v>
@@ -11454,19 +11452,19 @@
         <v>2.1760000000000002</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M38" s="8">
         <v>0</v>
@@ -11505,19 +11503,19 @@
         <v>1.52</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M39" s="8">
         <v>0</v>
@@ -11556,19 +11554,19 @@
         <v>1.7869999999999999</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M40" s="8">
         <v>0</v>
@@ -11607,19 +11605,19 @@
         <v>2.52</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K41" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M41" s="8">
         <v>0</v>
@@ -11658,19 +11656,19 @@
         <v>1.256</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K42" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M42" s="8">
         <v>0</v>
@@ -11709,19 +11707,19 @@
         <v>1.5229999999999999</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K43" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M43" s="8">
         <v>0</v>
@@ -11760,19 +11758,19 @@
         <v>2.2559999999999998</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K44" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M44" s="8">
         <v>0</v>
@@ -11811,19 +11809,19 @@
         <v>1.6</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K45" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M45" s="8">
         <v>0</v>
@@ -11862,19 +11860,19 @@
         <v>1.867</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K46" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M46" s="8">
         <v>0</v>
@@ -11913,19 +11911,19 @@
         <v>2.6</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K47" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M47" s="8">
         <v>0</v>
@@ -11964,19 +11962,19 @@
         <v>0.42399999999999999</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K48" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M48" s="8">
         <v>0</v>
@@ -12015,19 +12013,19 @@
         <v>0.42399999999999999</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K49" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M49" s="8">
         <v>0</v>
@@ -12066,19 +12064,19 @@
         <v>0.42399999999999999</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K50" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M50" s="8">
         <v>0</v>
@@ -12117,19 +12115,19 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K51" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M51" s="8">
         <v>0</v>
@@ -12168,19 +12166,19 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K52" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M52" s="8">
         <v>0</v>
@@ -12219,19 +12217,19 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K53" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M53" s="8">
         <v>0</v>
@@ -12270,19 +12268,19 @@
         <v>0.08</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K54" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M54" s="8">
         <v>0</v>
@@ -12321,19 +12319,19 @@
         <v>0.08</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K55" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M55" s="8">
         <v>0</v>
@@ -12372,19 +12370,19 @@
         <v>0.08</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K56" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M56" s="8">
         <v>0</v>
@@ -12423,16 +12421,16 @@
         <v>0</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J57" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K57" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="L57" s="9" t="s">
         <v>40</v>
@@ -12474,16 +12472,16 @@
         <v>0</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L58" s="9" t="s">
         <v>40</v>
@@ -12525,16 +12523,16 @@
         <v>0</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L59" s="9" t="s">
         <v>40</v>
@@ -12576,16 +12574,16 @@
         <v>0</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L60" s="9" t="s">
         <v>40</v>
@@ -12627,16 +12625,16 @@
         <v>0</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L61" s="9" t="s">
         <v>40</v>
@@ -12678,16 +12676,16 @@
         <v>0</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L62" s="9" t="s">
         <v>40</v>
@@ -12729,16 +12727,16 @@
         <v>0</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L63" s="9" t="s">
         <v>40</v>
@@ -12780,16 +12778,16 @@
         <v>0</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L64" s="9" t="s">
         <v>40</v>
@@ -12831,16 +12829,16 @@
         <v>0</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L65" s="9" t="s">
         <v>40</v>
@@ -12882,16 +12880,16 @@
         <v>0</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L66" s="9" t="s">
         <v>40</v>
@@ -12933,19 +12931,19 @@
         <v>999</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>37</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K67" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M67" s="8">
         <v>0</v>
@@ -12984,19 +12982,19 @@
         <v>999</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>37</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K68" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M68" s="8">
         <v>0</v>
@@ -13035,19 +13033,19 @@
         <v>0</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K69" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M69" s="8">
         <v>0</v>
@@ -13086,13 +13084,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>41</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K70" s="9" t="s">
         <v>20</v>
@@ -13137,13 +13135,13 @@
         <v>0</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>41</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K71" s="9" t="s">
         <v>20</v>
@@ -13188,13 +13186,13 @@
         <v>0</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>42</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K72" s="9" t="s">
         <v>20</v>
@@ -13239,13 +13237,13 @@
         <v>0</v>
       </c>
       <c r="H73" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>42</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K73" s="9" t="s">
         <v>20</v>
@@ -13290,13 +13288,13 @@
         <v>0</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>43</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K74" s="9" t="s">
         <v>20</v>
@@ -13341,13 +13339,13 @@
         <v>0</v>
       </c>
       <c r="H75" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>46</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K75" s="9" t="s">
         <v>20</v>
@@ -13392,13 +13390,13 @@
         <v>0</v>
       </c>
       <c r="H76" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>46</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K76" s="9" t="s">
         <v>20</v>
@@ -13443,13 +13441,13 @@
         <v>0</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K77" s="9" t="s">
         <v>20</v>
@@ -13494,13 +13492,13 @@
         <v>0</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K78" s="9" t="s">
         <v>20</v>
@@ -13545,13 +13543,13 @@
         <v>0</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K79" s="9" t="s">
         <v>20</v>
@@ -13596,13 +13594,13 @@
         <v>0</v>
       </c>
       <c r="H80" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K80" s="9" t="s">
         <v>20</v>
@@ -13647,13 +13645,13 @@
         <v>0</v>
       </c>
       <c r="H81" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K81" s="9" t="s">
         <v>20</v>
@@ -13698,13 +13696,13 @@
         <v>0</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K82" s="9" t="s">
         <v>20</v>
@@ -13749,13 +13747,13 @@
         <v>0</v>
       </c>
       <c r="H83" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I83" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K83" s="9" t="s">
         <v>20</v>
@@ -13800,13 +13798,13 @@
         <v>0</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K84" s="9" t="s">
         <v>20</v>
@@ -13851,13 +13849,13 @@
         <v>0</v>
       </c>
       <c r="H85" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K85" s="9" t="s">
         <v>20</v>
@@ -13902,13 +13900,13 @@
         <v>0</v>
       </c>
       <c r="H86" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K86" s="9" t="s">
         <v>20</v>
@@ -13953,13 +13951,13 @@
         <v>0</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>48</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K87" s="9" t="s">
         <v>20</v>
@@ -14004,13 +14002,13 @@
         <v>0</v>
       </c>
       <c r="H88" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>49</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K88" s="9" t="s">
         <v>20</v>
@@ -14055,13 +14053,13 @@
         <v>0</v>
       </c>
       <c r="H89" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I89" s="9" t="s">
         <v>49</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K89" s="9" t="s">
         <v>20</v>
@@ -14106,13 +14104,13 @@
         <v>0</v>
       </c>
       <c r="H90" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>52</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K90" s="9" t="s">
         <v>20</v>
@@ -14157,13 +14155,13 @@
         <v>0</v>
       </c>
       <c r="H91" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I91" s="9" t="s">
         <v>53</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K91" s="9" t="s">
         <v>20</v>
@@ -14208,19 +14206,19 @@
         <v>1.6910000000000001</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>54</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K92" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M92" s="8">
         <v>0</v>
@@ -14259,13 +14257,13 @@
         <v>0</v>
       </c>
       <c r="H93" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>57</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K93" s="9" t="s">
         <v>20</v>
@@ -14310,13 +14308,13 @@
         <v>0</v>
       </c>
       <c r="H94" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>59</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K94" s="9" t="s">
         <v>20</v>
@@ -14361,19 +14359,19 @@
         <v>2</v>
       </c>
       <c r="H95" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I95" s="9" t="s">
         <v>60</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K95" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M95" s="8">
         <v>10.8</v>
@@ -14412,13 +14410,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I96" s="9" t="s">
         <v>63</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K96" s="9" t="s">
         <v>20</v>
@@ -14463,19 +14461,19 @@
         <v>2.83</v>
       </c>
       <c r="H97" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>67</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K97" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M97" s="8">
         <v>0</v>
@@ -14514,19 +14512,19 @@
         <v>3.09</v>
       </c>
       <c r="H98" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>67</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K98" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M98" s="8">
         <v>0</v>
@@ -14565,19 +14563,19 @@
         <v>3.09</v>
       </c>
       <c r="H99" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>66</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K99" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M99" s="8">
         <v>0</v>
@@ -14616,19 +14614,19 @@
         <v>3.55</v>
       </c>
       <c r="H100" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>67</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K100" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M100" s="8">
         <v>0</v>
@@ -14667,19 +14665,19 @@
         <v>2.11</v>
       </c>
       <c r="H101" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>64</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K101" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M101" s="8">
         <v>0</v>
@@ -14718,19 +14716,19 @@
         <v>0.92</v>
       </c>
       <c r="H102" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>64</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K102" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M102" s="8">
         <v>0</v>
@@ -14769,19 +14767,19 @@
         <v>2.04</v>
       </c>
       <c r="H103" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I103" s="9" t="s">
         <v>64</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K103" s="9" t="s">
         <v>40</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M103" s="8">
         <v>0</v>
@@ -14820,13 +14818,13 @@
         <v>0</v>
       </c>
       <c r="H104" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I104" s="9" t="s">
         <v>68</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K104" s="9" t="s">
         <v>20</v>
@@ -14871,13 +14869,13 @@
         <v>0</v>
       </c>
       <c r="H105" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K105" s="9" t="s">
         <v>20</v>
@@ -14922,13 +14920,13 @@
         <v>0</v>
       </c>
       <c r="H106" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I106" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K106" s="9" t="s">
         <v>20</v>
@@ -14973,13 +14971,13 @@
         <v>0</v>
       </c>
       <c r="H107" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I107" s="9" t="s">
         <v>71</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K107" s="9" t="s">
         <v>20</v>
@@ -15024,13 +15022,13 @@
         <v>0</v>
       </c>
       <c r="H108" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I108" s="9" t="s">
         <v>73</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K108" s="9" t="s">
         <v>20</v>
@@ -15075,13 +15073,13 @@
         <v>0</v>
       </c>
       <c r="H109" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I109" s="9" t="s">
         <v>76</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K109" s="9" t="s">
         <v>20</v>
@@ -15126,13 +15124,13 @@
         <v>0</v>
       </c>
       <c r="H110" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I110" s="9" t="s">
         <v>76</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K110" s="9" t="s">
         <v>20</v>
@@ -15177,13 +15175,13 @@
         <v>0</v>
       </c>
       <c r="H111" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I111" s="9" t="s">
         <v>78</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K111" s="9" t="s">
         <v>20</v>
@@ -15228,13 +15226,13 @@
         <v>0</v>
       </c>
       <c r="H112" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I112" s="9" t="s">
         <v>81</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K112" s="9" t="s">
         <v>20</v>
@@ -15279,13 +15277,13 @@
         <v>0</v>
       </c>
       <c r="H113" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I113" s="9" t="s">
         <v>81</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K113" s="9" t="s">
         <v>20</v>
@@ -15330,13 +15328,13 @@
         <v>0</v>
       </c>
       <c r="H114" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I114" s="9" t="s">
         <v>83</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K114" s="9" t="s">
         <v>20</v>
@@ -15381,13 +15379,13 @@
         <v>0</v>
       </c>
       <c r="H115" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I115" s="9" t="s">
         <v>86</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K115" s="9" t="s">
         <v>20</v>
@@ -15432,13 +15430,13 @@
         <v>0</v>
       </c>
       <c r="H116" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I116" s="9" t="s">
         <v>88</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K116" s="9" t="s">
         <v>20</v>
@@ -15483,13 +15481,13 @@
         <v>0</v>
       </c>
       <c r="H117" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I117" s="9" t="s">
         <v>43</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K117" s="9" t="s">
         <v>20</v>
@@ -15534,13 +15532,13 @@
         <v>0</v>
       </c>
       <c r="H118" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I118" s="9" t="s">
         <v>90</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K118" s="9" t="s">
         <v>20</v>
@@ -15585,13 +15583,13 @@
         <v>0</v>
       </c>
       <c r="H119" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I119" s="9" t="s">
         <v>92</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K119" s="9" t="s">
         <v>20</v>
@@ -15636,13 +15634,13 @@
         <v>0</v>
       </c>
       <c r="H120" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I120" s="9" t="s">
         <v>93</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K120" s="9" t="s">
         <v>20</v>
@@ -15687,13 +15685,13 @@
         <v>0</v>
       </c>
       <c r="H121" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I121" s="9" t="s">
         <v>93</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K121" s="9" t="s">
         <v>20</v>
@@ -15738,13 +15736,13 @@
         <v>0</v>
       </c>
       <c r="H122" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I122" s="9" t="s">
         <v>96</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K122" s="9" t="s">
         <v>20</v>
@@ -15789,13 +15787,13 @@
         <v>0</v>
       </c>
       <c r="H123" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I123" s="9" t="s">
         <v>96</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K123" s="9" t="s">
         <v>20</v>
@@ -15840,13 +15838,13 @@
         <v>0</v>
       </c>
       <c r="H124" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I124" s="9" t="s">
         <v>99</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K124" s="9" t="s">
         <v>20</v>
@@ -15891,13 +15889,13 @@
         <v>0</v>
       </c>
       <c r="H125" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I125" s="9" t="s">
         <v>99</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K125" s="9" t="s">
         <v>20</v>
@@ -15942,13 +15940,13 @@
         <v>0</v>
       </c>
       <c r="H126" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I126" s="9" t="s">
         <v>102</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K126" s="9" t="s">
         <v>20</v>
@@ -15993,13 +15991,13 @@
         <v>0</v>
       </c>
       <c r="H127" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I127" s="9" t="s">
         <v>102</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K127" s="9" t="s">
         <v>20</v>
@@ -16044,13 +16042,13 @@
         <v>0</v>
       </c>
       <c r="H128" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I128" s="9" t="s">
         <v>105</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K128" s="9" t="s">
         <v>20</v>
@@ -16095,13 +16093,13 @@
         <v>0</v>
       </c>
       <c r="H129" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I129" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K129" s="9" t="s">
         <v>20</v>
@@ -16146,13 +16144,13 @@
         <v>0</v>
       </c>
       <c r="H130" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I130" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K130" s="9" t="s">
         <v>20</v>
@@ -16197,13 +16195,13 @@
         <v>0</v>
       </c>
       <c r="H131" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I131" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K131" s="9" t="s">
         <v>20</v>
@@ -16248,13 +16246,13 @@
         <v>0</v>
       </c>
       <c r="H132" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I132" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K132" s="9" t="s">
         <v>20</v>
@@ -16299,13 +16297,13 @@
         <v>0</v>
       </c>
       <c r="H133" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I133" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K133" s="9" t="s">
         <v>20</v>
@@ -16350,13 +16348,13 @@
         <v>0</v>
       </c>
       <c r="H134" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I134" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K134" s="9" t="s">
         <v>20</v>
@@ -16401,13 +16399,13 @@
         <v>0</v>
       </c>
       <c r="H135" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I135" s="9" t="s">
         <v>108</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K135" s="9" t="s">
         <v>20</v>
@@ -16452,13 +16450,13 @@
         <v>0</v>
       </c>
       <c r="H136" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I136" s="9" t="s">
         <v>110</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K136" s="9" t="s">
         <v>20</v>
@@ -16503,13 +16501,13 @@
         <v>0</v>
       </c>
       <c r="H137" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I137" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K137" s="9" t="s">
         <v>20</v>
@@ -16554,13 +16552,13 @@
         <v>0</v>
       </c>
       <c r="H138" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I138" s="9" t="s">
         <v>112</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K138" s="9" t="s">
         <v>20</v>
@@ -16605,13 +16603,13 @@
         <v>0</v>
       </c>
       <c r="H139" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K139" s="9" t="s">
         <v>20</v>
@@ -16656,13 +16654,13 @@
         <v>0</v>
       </c>
       <c r="H140" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K140" s="9" t="s">
         <v>20</v>
@@ -16707,13 +16705,13 @@
         <v>0</v>
       </c>
       <c r="H141" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K141" s="9" t="s">
         <v>20</v>
@@ -16758,13 +16756,13 @@
         <v>0</v>
       </c>
       <c r="H142" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K142" s="9" t="s">
         <v>20</v>
@@ -16809,13 +16807,13 @@
         <v>0</v>
       </c>
       <c r="H143" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K143" s="9" t="s">
         <v>20</v>
@@ -16860,13 +16858,13 @@
         <v>0</v>
       </c>
       <c r="H144" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K144" s="9" t="s">
         <v>20</v>
@@ -16911,16 +16909,16 @@
         <v>0</v>
       </c>
       <c r="H145" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L145" s="9" t="s">
         <v>40</v>
@@ -16962,13 +16960,13 @@
         <v>0</v>
       </c>
       <c r="H146" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K146" s="9" t="s">
         <v>20</v>
@@ -17013,13 +17011,13 @@
         <v>0</v>
       </c>
       <c r="H147" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I147" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K147" s="9" t="s">
         <v>20</v>
@@ -17064,13 +17062,13 @@
         <v>0</v>
       </c>
       <c r="H148" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K148" s="9" t="s">
         <v>20</v>
@@ -17115,13 +17113,13 @@
         <v>0</v>
       </c>
       <c r="H149" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K149" s="9" t="s">
         <v>20</v>
@@ -17166,13 +17164,13 @@
         <v>0</v>
       </c>
       <c r="H150" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K150" s="9" t="s">
         <v>20</v>
@@ -17217,13 +17215,13 @@
         <v>0</v>
       </c>
       <c r="H151" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K151" s="9" t="s">
         <v>20</v>
@@ -17268,13 +17266,13 @@
         <v>0</v>
       </c>
       <c r="H152" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K152" s="9" t="s">
         <v>20</v>
@@ -17319,13 +17317,13 @@
         <v>0</v>
       </c>
       <c r="H153" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J153" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K153" s="9" t="s">
         <v>20</v>
@@ -17370,13 +17368,13 @@
         <v>0</v>
       </c>
       <c r="H154" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J154" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K154" s="9" t="s">
         <v>20</v>
@@ -17421,13 +17419,13 @@
         <v>0</v>
       </c>
       <c r="H155" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J155" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K155" s="9" t="s">
         <v>20</v>
@@ -17472,13 +17470,13 @@
         <v>0</v>
       </c>
       <c r="H156" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J156" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K156" s="9" t="s">
         <v>20</v>
@@ -17523,13 +17521,13 @@
         <v>0</v>
       </c>
       <c r="H157" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K157" s="9" t="s">
         <v>20</v>
@@ -17574,13 +17572,13 @@
         <v>0</v>
       </c>
       <c r="H158" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I158" s="9" t="s">
         <v>88</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K158" s="9" t="s">
         <v>20</v>
@@ -17603,28 +17601,28 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B159" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C159" s="32">
+        <v>0</v>
+      </c>
+      <c r="D159" s="43">
+        <v>0</v>
+      </c>
+      <c r="E159" s="54">
+        <v>0</v>
+      </c>
+      <c r="F159" s="33">
+        <v>0</v>
+      </c>
+      <c r="G159" s="33">
+        <v>0</v>
+      </c>
+      <c r="H159" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="I159" s="35" t="s">
         <v>349</v>
-      </c>
-      <c r="C159" s="32">
-        <v>0</v>
-      </c>
-      <c r="D159" s="43">
-        <v>0</v>
-      </c>
-      <c r="E159" s="54">
-        <v>0</v>
-      </c>
-      <c r="F159" s="33">
-        <v>0</v>
-      </c>
-      <c r="G159" s="33">
-        <v>0</v>
-      </c>
-      <c r="H159" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="I159" s="35" t="s">
-        <v>350</v>
       </c>
       <c r="J159" s="25"/>
       <c r="K159" s="25"/>
@@ -17637,7 +17635,7 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B160" s="7"/>
     </row>
@@ -17680,97 +17678,97 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P3" s="53"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>1</v>
@@ -17790,28 +17788,28 @@
       <c r="O14" s="13"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="R14" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="S14" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="T14" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="U14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="V14" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="W14" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="W14" s="6" t="s">
+      <c r="X14" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -17819,46 +17817,46 @@
         <v>1</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O15" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P15" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
@@ -17870,50 +17868,50 @@
       <c r="X15" s="16"/>
     </row>
     <row r="16" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="71" t="s">
-        <v>390</v>
-      </c>
-      <c r="C16" s="71">
-        <v>0</v>
-      </c>
-      <c r="D16" s="72">
-        <v>1</v>
-      </c>
-      <c r="E16" s="71">
+      <c r="B16" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16" s="70">
+        <v>0</v>
+      </c>
+      <c r="D16" s="71">
+        <v>1</v>
+      </c>
+      <c r="E16" s="70">
         <v>2</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="70">
         <v>3</v>
       </c>
-      <c r="G16" s="71">
+      <c r="G16" s="70">
         <v>4</v>
       </c>
-      <c r="H16" s="72">
+      <c r="H16" s="71">
         <v>5</v>
       </c>
-      <c r="I16" s="71">
+      <c r="I16" s="70">
         <v>6</v>
       </c>
-      <c r="J16" s="71">
+      <c r="J16" s="70">
         <v>7</v>
       </c>
-      <c r="K16" s="71">
+      <c r="K16" s="70">
         <v>8</v>
       </c>
-      <c r="L16" s="72">
+      <c r="L16" s="71">
         <v>9</v>
       </c>
-      <c r="M16" s="71">
+      <c r="M16" s="70">
         <v>10</v>
       </c>
-      <c r="N16" s="71">
+      <c r="N16" s="70">
         <v>11</v>
       </c>
-      <c r="O16" s="71">
+      <c r="O16" s="70">
         <v>12</v>
       </c>
       <c r="P16" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
@@ -17968,13 +17966,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q17" s="9" t="s">
         <v>99</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S17" s="8" t="b">
         <v>1</v>
@@ -17986,10 +17984,10 @@
         <v>0</v>
       </c>
       <c r="V17" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W17" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X17" s="8">
         <v>1</v>
@@ -18039,13 +18037,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q18" s="9" t="s">
         <v>49</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S18" s="8" t="b">
         <v>1</v>
@@ -18057,10 +18055,10 @@
         <v>0</v>
       </c>
       <c r="V18" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W18" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W18" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X18" s="8">
         <v>2</v>
@@ -18110,13 +18108,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S19" s="8" t="b">
         <v>1</v>
@@ -18128,10 +18126,10 @@
         <v>0</v>
       </c>
       <c r="V19" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W19" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W19" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X19" s="8">
         <v>3</v>
@@ -18181,13 +18179,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q20" s="9" t="s">
         <v>102</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S20" s="8" t="b">
         <v>1</v>
@@ -18199,10 +18197,10 @@
         <v>0</v>
       </c>
       <c r="V20" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W20" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W20" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X20" s="8">
         <v>4</v>
@@ -18252,13 +18250,13 @@
         <v>0</v>
       </c>
       <c r="P21" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>96</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S21" s="8" t="b">
         <v>1</v>
@@ -18270,10 +18268,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="W21" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="W21" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="X21" s="8">
         <v>5</v>
@@ -18323,13 +18321,13 @@
         <v>0</v>
       </c>
       <c r="P22" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S22" s="8" t="b">
         <v>1</v>
@@ -18341,10 +18339,10 @@
         <v>0</v>
       </c>
       <c r="V22" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W22" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X22" s="8">
         <v>6</v>
@@ -18394,13 +18392,13 @@
         <v>0</v>
       </c>
       <c r="P23" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S23" s="8" t="b">
         <v>1</v>
@@ -18412,10 +18410,10 @@
         <v>0</v>
       </c>
       <c r="V23" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="W23" s="9" t="s">
         <v>298</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>299</v>
       </c>
       <c r="X23" s="8">
         <v>7</v>
@@ -18465,13 +18463,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q24" s="9" t="s">
         <v>81</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S24" s="8" t="b">
         <v>1</v>
@@ -18483,10 +18481,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W24" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X24" s="8">
         <v>8</v>
@@ -18536,13 +18534,13 @@
         <v>0</v>
       </c>
       <c r="P25" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q25" s="9" t="s">
         <v>88</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S25" s="8" t="b">
         <v>1</v>
@@ -18554,10 +18552,10 @@
         <v>0</v>
       </c>
       <c r="V25" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W25" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W25" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X25" s="8">
         <v>9</v>
@@ -18607,13 +18605,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S26" s="8" t="b">
         <v>1</v>
@@ -18625,10 +18623,10 @@
         <v>0</v>
       </c>
       <c r="V26" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="W26" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="W26" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="X26" s="8">
         <v>10</v>
@@ -18678,28 +18676,28 @@
         <v>0</v>
       </c>
       <c r="P27" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q27" s="9" t="s">
         <v>73</v>
       </c>
       <c r="R27" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="S27" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U27" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="S27" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="T27" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U27" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V27" s="9" t="s">
+      <c r="W27" s="9" t="s">
         <v>298</v>
-      </c>
-      <c r="W27" s="9" t="s">
-        <v>299</v>
       </c>
       <c r="X27" s="8">
         <v>11</v>
@@ -18749,13 +18747,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q28" s="9" t="s">
         <v>108</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S28" s="8" t="b">
         <v>1</v>
@@ -18767,10 +18765,10 @@
         <v>0</v>
       </c>
       <c r="V28" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W28" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W28" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X28" s="8">
         <v>12</v>
@@ -18820,13 +18818,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q29" s="9" t="s">
         <v>93</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S29" s="8" t="b">
         <v>1</v>
@@ -18838,10 +18836,10 @@
         <v>0</v>
       </c>
       <c r="V29" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W29" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W29" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X29" s="8">
         <v>13</v>
@@ -18891,13 +18889,13 @@
         <v>0</v>
       </c>
       <c r="P30" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q30" s="9" t="s">
         <v>48</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S30" s="8" t="b">
         <v>1</v>
@@ -18909,10 +18907,10 @@
         <v>0</v>
       </c>
       <c r="V30" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W30" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W30" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X30" s="8">
         <v>14</v>
@@ -18962,13 +18960,13 @@
         <v>0</v>
       </c>
       <c r="P31" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S31" s="8" t="b">
         <v>1</v>
@@ -18980,10 +18978,10 @@
         <v>0</v>
       </c>
       <c r="V31" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W31" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W31" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X31" s="8">
         <v>15</v>
@@ -19033,13 +19031,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S32" s="8" t="b">
         <v>1</v>
@@ -19051,10 +19049,10 @@
         <v>0</v>
       </c>
       <c r="V32" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W32" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W32" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X32" s="8">
         <v>16</v>
@@ -19104,13 +19102,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q33" s="9" t="s">
         <v>43</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S33" s="8" t="b">
         <v>1</v>
@@ -19122,10 +19120,10 @@
         <v>0</v>
       </c>
       <c r="V33" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="W33" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="W33" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="X33" s="8">
         <v>17</v>
@@ -19175,13 +19173,13 @@
         <v>0</v>
       </c>
       <c r="P34" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S34" s="8" t="b">
         <v>1</v>
@@ -19193,10 +19191,10 @@
         <v>0</v>
       </c>
       <c r="V34" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W34" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W34" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X34" s="8">
         <v>18</v>
@@ -19246,13 +19244,13 @@
         <v>0</v>
       </c>
       <c r="P35" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q35" s="9" t="s">
         <v>54</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S35" s="8" t="b">
         <v>0</v>
@@ -19264,10 +19262,10 @@
         <v>0</v>
       </c>
       <c r="V35" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W35" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W35" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X35" s="8">
         <v>19</v>
@@ -19317,13 +19315,13 @@
         <v>0</v>
       </c>
       <c r="P36" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S36" s="8" t="b">
         <v>1</v>
@@ -19335,10 +19333,10 @@
         <v>0</v>
       </c>
       <c r="V36" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W36" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W36" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X36" s="8">
         <v>20</v>
@@ -19388,13 +19386,13 @@
         <v>0</v>
       </c>
       <c r="P37" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q37" s="9" t="s">
         <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S37" s="8" t="b">
         <v>1</v>
@@ -19406,10 +19404,10 @@
         <v>0</v>
       </c>
       <c r="V37" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W37" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W37" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X37" s="8">
         <v>21</v>
@@ -19459,13 +19457,13 @@
         <v>0</v>
       </c>
       <c r="P38" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q38" s="9" t="s">
         <v>92</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S38" s="8" t="b">
         <v>1</v>
@@ -19477,10 +19475,10 @@
         <v>0</v>
       </c>
       <c r="V38" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W38" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W38" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X38" s="8">
         <v>22</v>
@@ -19530,13 +19528,13 @@
         <v>0</v>
       </c>
       <c r="P39" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q39" s="9" t="s">
         <v>105</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S39" s="8" t="b">
         <v>1</v>
@@ -19548,10 +19546,10 @@
         <v>0</v>
       </c>
       <c r="V39" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W39" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W39" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X39" s="8">
         <v>23</v>
@@ -19601,13 +19599,13 @@
         <v>0</v>
       </c>
       <c r="P40" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q40" s="9" t="s">
         <v>68</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S40" s="8" t="b">
         <v>1</v>
@@ -19619,10 +19617,10 @@
         <v>0</v>
       </c>
       <c r="V40" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W40" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W40" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X40" s="8">
         <v>24</v>
@@ -19672,13 +19670,13 @@
         <v>0</v>
       </c>
       <c r="P41" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q41" s="9" t="s">
         <v>78</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S41" s="8" t="b">
         <v>1</v>
@@ -19690,10 +19688,10 @@
         <v>0</v>
       </c>
       <c r="V41" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W41" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W41" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X41" s="8">
         <v>25</v>
@@ -19743,28 +19741,28 @@
         <v>0</v>
       </c>
       <c r="P42" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q42" s="9" t="s">
         <v>83</v>
       </c>
       <c r="R42" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="S42" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V42" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="S42" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="T42" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U42" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V42" s="9" t="s">
+      <c r="W42" s="9" t="s">
         <v>304</v>
-      </c>
-      <c r="W42" s="9" t="s">
-        <v>305</v>
       </c>
       <c r="X42" s="8">
         <v>26</v>
@@ -19814,13 +19812,13 @@
         <v>0</v>
       </c>
       <c r="P43" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q43" s="9" t="s">
         <v>86</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S43" s="8" t="b">
         <v>1</v>
@@ -19832,10 +19830,10 @@
         <v>0</v>
       </c>
       <c r="V43" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="W43" s="9" t="s">
         <v>304</v>
-      </c>
-      <c r="W43" s="9" t="s">
-        <v>305</v>
       </c>
       <c r="X43" s="8">
         <v>27</v>
@@ -19885,28 +19883,28 @@
         <v>0</v>
       </c>
       <c r="P44" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R44" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="S44" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T44" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U44" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V44" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="S44" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="T44" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U44" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V44" s="9" t="s">
+      <c r="W44" s="9" t="s">
         <v>327</v>
-      </c>
-      <c r="W44" s="9" t="s">
-        <v>328</v>
       </c>
       <c r="X44" s="8">
         <v>28</v>
@@ -19956,13 +19954,13 @@
         <v>0</v>
       </c>
       <c r="P45" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q45" s="9" t="s">
         <v>110</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S45" s="8" t="b">
         <v>1</v>
@@ -19974,10 +19972,10 @@
         <v>0</v>
       </c>
       <c r="V45" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W45" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W45" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X45" s="8">
         <v>29</v>
@@ -20027,28 +20025,28 @@
         <v>0</v>
       </c>
       <c r="P46" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q46" s="9" t="s">
         <v>38</v>
       </c>
       <c r="R46" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="S46" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T46" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="U46" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="S46" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="T46" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="U46" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V46" s="9" t="s">
+      <c r="W46" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="W46" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="X46" s="8">
         <v>30</v>
@@ -20098,13 +20096,13 @@
         <v>0</v>
       </c>
       <c r="P47" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q47" s="9" t="s">
         <v>60</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S47" s="8" t="b">
         <v>1</v>
@@ -20116,10 +20114,10 @@
         <v>0</v>
       </c>
       <c r="V47" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W47" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W47" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X47" s="8">
         <v>32</v>
@@ -20169,13 +20167,13 @@
         <v>0</v>
       </c>
       <c r="P48" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R48" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S48" s="8" t="b">
         <v>1</v>
@@ -20187,10 +20185,10 @@
         <v>0</v>
       </c>
       <c r="V48" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="W48" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="W48" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="X48" s="8">
         <v>33</v>
@@ -20240,34 +20238,34 @@
         <v>0</v>
       </c>
       <c r="P49" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q49" s="9" t="s">
         <v>19</v>
       </c>
       <c r="R49" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="S49" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T49" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="U49" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V49" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="S49" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="T49" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="U49" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V49" s="9" t="s">
+      <c r="W49" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W49" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X49" s="8">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="18">
         <v>7</v>
       </c>
@@ -20311,13 +20309,13 @@
         <v>0</v>
       </c>
       <c r="P50" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q50" s="9" t="s">
         <v>41</v>
       </c>
       <c r="R50" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S50" s="8" t="b">
         <v>1</v>
@@ -20329,10 +20327,10 @@
         <v>0</v>
       </c>
       <c r="V50" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="W50" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="W50" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="X50" s="8">
         <v>35</v>
@@ -20382,13 +20380,13 @@
         <v>0</v>
       </c>
       <c r="P51" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q51" s="9" t="s">
         <v>42</v>
       </c>
       <c r="R51" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S51" s="8" t="b">
         <v>1</v>
@@ -20400,10 +20398,10 @@
         <v>0</v>
       </c>
       <c r="V51" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W51" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W51" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X51" s="8">
         <v>36</v>
@@ -20453,13 +20451,13 @@
         <v>0</v>
       </c>
       <c r="P52" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q52" s="9" t="s">
         <v>37</v>
       </c>
       <c r="R52" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S52" s="8" t="b">
         <v>0</v>
@@ -20471,10 +20469,10 @@
         <v>1</v>
       </c>
       <c r="V52" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W52" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W52" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X52" s="8">
         <v>37</v>
@@ -20524,13 +20522,13 @@
         <v>0</v>
       </c>
       <c r="P53" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q53" s="9" t="s">
         <v>112</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S53" s="8" t="b">
         <v>1</v>
@@ -20542,10 +20540,10 @@
         <v>0</v>
       </c>
       <c r="V53" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W53" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W53" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X53" s="8">
         <v>38</v>
@@ -20595,13 +20593,13 @@
         <v>0</v>
       </c>
       <c r="P54" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q54" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S54" s="8" t="b">
         <v>1</v>
@@ -20613,10 +20611,10 @@
         <v>0</v>
       </c>
       <c r="V54" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="W54" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="W54" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="X54" s="8">
         <v>39</v>
@@ -20666,13 +20664,13 @@
         <v>0</v>
       </c>
       <c r="P55" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q55" s="9" t="s">
         <v>71</v>
       </c>
       <c r="R55" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S55" s="8" t="b">
         <v>1</v>
@@ -20684,10 +20682,10 @@
         <v>0</v>
       </c>
       <c r="V55" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W55" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W55" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X55" s="8">
         <v>40</v>
@@ -20737,28 +20735,28 @@
         <v>0</v>
       </c>
       <c r="P56" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q56" s="9" t="s">
         <v>52</v>
       </c>
       <c r="R56" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="S56" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T56" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U56" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V56" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="S56" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="T56" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U56" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V56" s="9" t="s">
+      <c r="W56" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="W56" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="X56" s="8">
         <v>41</v>
@@ -20808,13 +20806,13 @@
         <v>0</v>
       </c>
       <c r="P57" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q57" s="9" t="s">
         <v>53</v>
       </c>
       <c r="R57" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S57" s="8" t="b">
         <v>1</v>
@@ -20826,10 +20824,10 @@
         <v>0</v>
       </c>
       <c r="V57" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W57" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W57" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X57" s="8">
         <v>42</v>
@@ -20879,28 +20877,28 @@
         <v>0</v>
       </c>
       <c r="P58" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q58" s="9" t="s">
         <v>24</v>
       </c>
       <c r="R58" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="S58" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T58" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U58" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V58" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="S58" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="T58" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U58" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V58" s="9" t="s">
+      <c r="W58" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="W58" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="X58" s="8">
         <v>43</v>
@@ -20950,13 +20948,13 @@
         <v>0</v>
       </c>
       <c r="P59" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q59" s="9" t="s">
         <v>27</v>
       </c>
       <c r="R59" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S59" s="8" t="b">
         <v>1</v>
@@ -20968,10 +20966,10 @@
         <v>0</v>
       </c>
       <c r="V59" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W59" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W59" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X59" s="8">
         <v>44</v>
@@ -21021,13 +21019,13 @@
         <v>0</v>
       </c>
       <c r="P60" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R60" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S60" s="8" t="b">
         <v>1</v>
@@ -21039,10 +21037,10 @@
         <v>0</v>
       </c>
       <c r="V60" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W60" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W60" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X60" s="8">
         <v>45</v>
@@ -21092,13 +21090,13 @@
         <v>0</v>
       </c>
       <c r="P61" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R61" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S61" s="8" t="b">
         <v>1</v>
@@ -21110,10 +21108,10 @@
         <v>0</v>
       </c>
       <c r="V61" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W61" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W61" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X61" s="8">
         <v>46</v>
@@ -21163,13 +21161,13 @@
         <v>0</v>
       </c>
       <c r="P62" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q62" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R62" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S62" s="8" t="b">
         <v>1</v>
@@ -21181,10 +21179,10 @@
         <v>0</v>
       </c>
       <c r="V62" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W62" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W62" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X62" s="8">
         <v>47</v>
@@ -21234,13 +21232,13 @@
         <v>0</v>
       </c>
       <c r="P63" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q63" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R63" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S63" s="8" t="b">
         <v>1</v>
@@ -21252,10 +21250,10 @@
         <v>0</v>
       </c>
       <c r="V63" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W63" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W63" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X63" s="8">
         <v>48</v>
@@ -21305,13 +21303,13 @@
         <v>0</v>
       </c>
       <c r="P64" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q64" s="9" t="s">
         <v>46</v>
       </c>
       <c r="R64" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S64" s="8" t="b">
         <v>1</v>
@@ -21323,10 +21321,10 @@
         <v>0</v>
       </c>
       <c r="V64" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W64" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W64" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X64" s="8">
         <v>49</v>
@@ -21376,13 +21374,13 @@
         <v>0</v>
       </c>
       <c r="P65" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q65" s="9" t="s">
         <v>32</v>
       </c>
       <c r="R65" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S65" s="8" t="b">
         <v>0</v>
@@ -21394,10 +21392,10 @@
         <v>0</v>
       </c>
       <c r="V65" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W65" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W65" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X65" s="8">
         <v>50</v>
@@ -21447,13 +21445,13 @@
         <v>0</v>
       </c>
       <c r="P66" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R66" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S66" s="8" t="b">
         <v>1</v>
@@ -21465,10 +21463,10 @@
         <v>0</v>
       </c>
       <c r="V66" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W66" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W66" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X66" s="8">
         <v>51</v>
@@ -21518,13 +21516,13 @@
         <v>0</v>
       </c>
       <c r="P67" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q67" s="9" t="s">
         <v>67</v>
       </c>
       <c r="R67" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S67" s="8" t="b">
         <v>0</v>
@@ -21536,10 +21534,10 @@
         <v>0</v>
       </c>
       <c r="V67" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="W67" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="W67" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="X67" s="8">
         <v>52</v>
@@ -21589,13 +21587,13 @@
         <v>0</v>
       </c>
       <c r="P68" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q68" s="9" t="s">
         <v>66</v>
       </c>
       <c r="R68" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S68" s="8" t="b">
         <v>0</v>
@@ -21607,10 +21605,10 @@
         <v>0</v>
       </c>
       <c r="V68" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="W68" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="W68" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="X68" s="8">
         <v>53</v>
@@ -21660,13 +21658,13 @@
         <v>0</v>
       </c>
       <c r="P69" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q69" s="9" t="s">
         <v>64</v>
       </c>
       <c r="R69" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S69" s="8" t="b">
         <v>0</v>
@@ -21678,10 +21676,10 @@
         <v>0</v>
       </c>
       <c r="V69" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W69" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W69" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X69" s="8">
         <v>54</v>
@@ -21731,13 +21729,13 @@
         <v>0</v>
       </c>
       <c r="P70" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q70" s="9" t="s">
         <v>63</v>
       </c>
       <c r="R70" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S70" s="8" t="b">
         <v>1</v>
@@ -21749,10 +21747,10 @@
         <v>0</v>
       </c>
       <c r="V70" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="W70" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="W70" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="X70" s="8">
         <v>55</v>
@@ -21802,28 +21800,28 @@
         <v>0</v>
       </c>
       <c r="P71" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q71" s="9" t="s">
         <v>57</v>
       </c>
       <c r="R71" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="S71" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T71" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U71" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V71" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="S71" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="T71" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U71" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V71" s="9" t="s">
+      <c r="W71" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="W71" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="X71" s="8">
         <v>56</v>
@@ -21873,13 +21871,13 @@
         <v>0</v>
       </c>
       <c r="P72" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q72" s="9" t="s">
         <v>59</v>
       </c>
       <c r="R72" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S72" s="8" t="b">
         <v>1</v>
@@ -21891,10 +21889,10 @@
         <v>0</v>
       </c>
       <c r="V72" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="W72" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="W72" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="X72" s="8">
         <v>57</v>
@@ -21944,13 +21942,13 @@
         <v>0</v>
       </c>
       <c r="P73" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q73" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R73" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S73" s="8" t="b">
         <v>1</v>
@@ -21962,10 +21960,10 @@
         <v>0</v>
       </c>
       <c r="V73" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W73" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W73" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X73" s="8">
         <v>58</v>
@@ -22015,13 +22013,13 @@
         <v>0</v>
       </c>
       <c r="P74" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R74" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S74" s="8" t="b">
         <v>1</v>
@@ -22033,10 +22031,10 @@
         <v>0</v>
       </c>
       <c r="V74" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W74" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W74" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X74" s="8">
         <v>59</v>
@@ -22086,13 +22084,13 @@
         <v>0</v>
       </c>
       <c r="P75" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q75" s="30" t="s">
         <v>76</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S75" s="8" t="b">
         <v>1</v>
@@ -22104,10 +22102,10 @@
         <v>0</v>
       </c>
       <c r="V75" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="W75" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="W75" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="X75" s="8">
         <v>60</v>
@@ -22115,52 +22113,52 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B76" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C76" s="32">
+        <v>0</v>
+      </c>
+      <c r="D76" s="43">
+        <v>0</v>
+      </c>
+      <c r="E76" s="33">
+        <v>0</v>
+      </c>
+      <c r="F76" s="33">
+        <v>0</v>
+      </c>
+      <c r="G76" s="47">
+        <v>0</v>
+      </c>
+      <c r="H76" s="65">
+        <v>1</v>
+      </c>
+      <c r="I76" s="66">
+        <v>1</v>
+      </c>
+      <c r="J76" s="66">
+        <v>1</v>
+      </c>
+      <c r="K76" s="67">
+        <v>1</v>
+      </c>
+      <c r="L76" s="65">
+        <v>1</v>
+      </c>
+      <c r="M76" s="66">
+        <v>1</v>
+      </c>
+      <c r="N76" s="33">
+        <v>0</v>
+      </c>
+      <c r="O76" s="33">
+        <v>0</v>
+      </c>
+      <c r="P76" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q76" s="35" t="s">
         <v>349</v>
-      </c>
-      <c r="C76" s="32">
-        <v>0</v>
-      </c>
-      <c r="D76" s="43">
-        <v>0</v>
-      </c>
-      <c r="E76" s="33">
-        <v>0</v>
-      </c>
-      <c r="F76" s="33">
-        <v>0</v>
-      </c>
-      <c r="G76" s="47">
-        <v>0</v>
-      </c>
-      <c r="H76" s="66">
-        <v>1</v>
-      </c>
-      <c r="I76" s="67">
-        <v>1</v>
-      </c>
-      <c r="J76" s="67">
-        <v>1</v>
-      </c>
-      <c r="K76" s="68">
-        <v>1</v>
-      </c>
-      <c r="L76" s="66">
-        <v>1</v>
-      </c>
-      <c r="M76" s="67">
-        <v>1</v>
-      </c>
-      <c r="N76" s="33">
-        <v>0</v>
-      </c>
-      <c r="O76" s="33">
-        <v>0</v>
-      </c>
-      <c r="P76" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q76" s="35" t="s">
-        <v>350</v>
       </c>
       <c r="R76" s="25"/>
       <c r="S76" s="24"/>
@@ -22172,7 +22170,7 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
